--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -421,37 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9678450266488479</v>
+        <v>1.011842593279395</v>
       </c>
       <c r="D2">
-        <v>0.9929685465461846</v>
+        <v>1.028131857655144</v>
       </c>
       <c r="E2">
-        <v>0.9779054025060631</v>
+        <v>1.021138287204925</v>
       </c>
       <c r="F2">
-        <v>0.9429088653235963</v>
+        <v>1.024503832807605</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032951007506882</v>
+        <v>1.050606772329405</v>
       </c>
       <c r="J2">
-        <v>0.9910319471723079</v>
+        <v>1.033674773303723</v>
       </c>
       <c r="K2">
-        <v>1.004526717743275</v>
+        <v>1.039212704172148</v>
       </c>
       <c r="L2">
-        <v>0.9896813805544433</v>
+        <v>1.0323107821878</v>
       </c>
       <c r="M2">
-        <v>0.9552253529451301</v>
-      </c>
-      <c r="N2">
-        <v>1.005704707400593</v>
+        <v>1.035632027679718</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.977288732430916</v>
+        <v>1.020912933778898</v>
       </c>
       <c r="D3">
-        <v>0.9999107897917652</v>
+        <v>1.035218436708082</v>
       </c>
       <c r="E3">
-        <v>0.9858349815062687</v>
+        <v>1.029369503007335</v>
       </c>
       <c r="F3">
-        <v>0.9554698777360494</v>
+        <v>1.033528479868195</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035964751333311</v>
+        <v>1.054015106243062</v>
       </c>
       <c r="J3">
-        <v>0.9984182776865492</v>
+        <v>1.040849283586161</v>
       </c>
       <c r="K3">
-        <v>1.010544812206396</v>
+        <v>1.04541968133192</v>
       </c>
       <c r="L3">
-        <v>0.9966523732693353</v>
+        <v>1.039639895942</v>
       </c>
       <c r="M3">
-        <v>0.9667061244907996</v>
-      </c>
-      <c r="N3">
-        <v>1.005704707400593</v>
+        <v>1.04374960425081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.983148149830213</v>
+        <v>1.026568898342569</v>
       </c>
       <c r="D4">
-        <v>1.004220208666699</v>
+        <v>1.039639277693717</v>
       </c>
       <c r="E4">
-        <v>0.9907615800730053</v>
+        <v>1.034504066959557</v>
       </c>
       <c r="F4">
-        <v>0.9632465062196011</v>
+        <v>1.039162071107593</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03781567387819</v>
+        <v>1.056124461717843</v>
       </c>
       <c r="J4">
-        <v>1.002992976755709</v>
+        <v>1.045316550116576</v>
       </c>
       <c r="K4">
-        <v>1.014267964947789</v>
+        <v>1.049281719620892</v>
       </c>
       <c r="L4">
-        <v>1.000972798523194</v>
+        <v>1.044203156699267</v>
       </c>
       <c r="M4">
-        <v>0.9738097320821906</v>
-      </c>
-      <c r="N4">
-        <v>1.005704707400593</v>
+        <v>1.048809748235512</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9855559476988125</v>
+        <v>1.02889911562925</v>
       </c>
       <c r="D5">
-        <v>1.005991358368809</v>
+        <v>1.041460947143083</v>
       </c>
       <c r="E5">
-        <v>0.9927875019005024</v>
+        <v>1.036619836263286</v>
       </c>
       <c r="F5">
-        <v>0.9664389235440684</v>
+        <v>1.041484478816522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038571620917089</v>
+        <v>1.056989600556079</v>
       </c>
       <c r="J5">
-        <v>1.004870836510442</v>
+        <v>1.04715540166971</v>
       </c>
       <c r="K5">
-        <v>1.015795207090169</v>
+        <v>1.050870740522381</v>
       </c>
       <c r="L5">
-        <v>1.002746954488023</v>
+        <v>1.046081464229922</v>
       </c>
       <c r="M5">
-        <v>0.9767247575064653</v>
-      </c>
-      <c r="N5">
-        <v>1.005704707400593</v>
+        <v>1.050894021679004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9859570975113416</v>
+        <v>1.029287675314007</v>
       </c>
       <c r="D6">
-        <v>1.006286451248255</v>
+        <v>1.041764722059929</v>
       </c>
       <c r="E6">
-        <v>0.9931251105424771</v>
+        <v>1.0369726564773</v>
       </c>
       <c r="F6">
-        <v>0.9669706276786226</v>
+        <v>1.041871817473405</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03869728882348</v>
+        <v>1.057133629535561</v>
       </c>
       <c r="J6">
-        <v>1.005183576678215</v>
+        <v>1.047461929223258</v>
       </c>
       <c r="K6">
-        <v>1.016049490191488</v>
+        <v>1.051135580300099</v>
       </c>
       <c r="L6">
-        <v>1.003042462308644</v>
+        <v>1.046394565700034</v>
       </c>
       <c r="M6">
-        <v>0.9772101938444634</v>
-      </c>
-      <c r="N6">
-        <v>1.005704707400593</v>
+        <v>1.051241541365505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9831805353046555</v>
+        <v>1.026600217335652</v>
       </c>
       <c r="D7">
-        <v>1.004244030173308</v>
+        <v>1.039663760541464</v>
       </c>
       <c r="E7">
-        <v>0.9907888236696833</v>
+        <v>1.034532502341477</v>
       </c>
       <c r="F7">
-        <v>0.9632894567400141</v>
+        <v>1.039193279631373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037825860116569</v>
+        <v>1.056136105056164</v>
       </c>
       <c r="J7">
-        <v>1.003018242468464</v>
+        <v>1.045341271516115</v>
       </c>
       <c r="K7">
-        <v>1.014288517601558</v>
+        <v>1.049303085138921</v>
       </c>
       <c r="L7">
-        <v>1.000996666328385</v>
+        <v>1.04422840876266</v>
       </c>
       <c r="M7">
-        <v>0.9738489550999188</v>
-      </c>
-      <c r="N7">
-        <v>1.005704707400593</v>
+        <v>1.048837763589225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.971091604811579</v>
+        <v>1.014954308764917</v>
       </c>
       <c r="D8">
-        <v>0.9953545969385521</v>
+        <v>1.030562525297191</v>
       </c>
       <c r="E8">
-        <v>0.9806299436463031</v>
+        <v>1.023961684987569</v>
       </c>
       <c r="F8">
-        <v>0.9472312935384085</v>
+        <v>1.027598535384086</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033991055843412</v>
+        <v>1.051779394073034</v>
       </c>
       <c r="J8">
-        <v>0.9935729549512864</v>
+        <v>1.03613743608011</v>
       </c>
       <c r="K8">
-        <v>1.006597863035557</v>
+        <v>1.041343829573785</v>
       </c>
       <c r="L8">
-        <v>0.9920788485872546</v>
+        <v>1.034826574723816</v>
       </c>
       <c r="M8">
-        <v>0.9591768955066876</v>
-      </c>
-      <c r="N8">
-        <v>1.005704707400593</v>
+        <v>1.03841720642469</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9476170439270682</v>
+        <v>0.9926209196884241</v>
       </c>
       <c r="D9">
-        <v>0.9781212465805227</v>
+        <v>1.013132043215378</v>
       </c>
       <c r="E9">
-        <v>0.9609667123979388</v>
+        <v>1.003709572292719</v>
       </c>
       <c r="F9">
-        <v>0.9158574207115361</v>
+        <v>1.005417079086213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026391211480819</v>
+        <v>1.043296395927693</v>
       </c>
       <c r="J9">
-        <v>0.9751655657426942</v>
+        <v>1.018436970531197</v>
       </c>
       <c r="K9">
-        <v>0.9915795538190328</v>
+        <v>1.026015595480452</v>
       </c>
       <c r="L9">
-        <v>0.9747265011606189</v>
+        <v>1.016742749624959</v>
       </c>
       <c r="M9">
-        <v>0.9304810601789341</v>
-      </c>
-      <c r="N9">
-        <v>1.005704707400593</v>
+        <v>1.018422875133532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9300802546595636</v>
+        <v>0.9762182171247884</v>
       </c>
       <c r="D10">
-        <v>0.9652856028059907</v>
+        <v>1.000358330574744</v>
       </c>
       <c r="E10">
-        <v>0.9463350874203736</v>
+        <v>0.9888561722318717</v>
       </c>
       <c r="F10">
-        <v>0.8921937026246427</v>
+        <v>0.9891685916316449</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020615789167835</v>
+        <v>1.036983797756601</v>
       </c>
       <c r="J10">
-        <v>0.9613715468536382</v>
+        <v>1.005408229311268</v>
       </c>
       <c r="K10">
-        <v>0.9803112589889172</v>
+        <v>1.014721118264876</v>
       </c>
       <c r="L10">
-        <v>0.9617459402346368</v>
+        <v>1.003429589776153</v>
       </c>
       <c r="M10">
-        <v>0.9088265427235156</v>
-      </c>
-      <c r="N10">
-        <v>1.005704707400593</v>
+        <v>1.003736203674274</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9219113118191237</v>
+        <v>0.9686737081727362</v>
       </c>
       <c r="D11">
-        <v>0.9593211145820171</v>
+        <v>0.994493022154374</v>
       </c>
       <c r="E11">
-        <v>0.9395372182334111</v>
+        <v>0.9820312378936338</v>
       </c>
       <c r="F11">
-        <v>0.8810872759079232</v>
+        <v>0.9817067483213013</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017904288304681</v>
+        <v>1.034062223175541</v>
       </c>
       <c r="J11">
-        <v>0.9549365705509743</v>
+        <v>0.9994103702738002</v>
       </c>
       <c r="K11">
-        <v>0.9750532304470415</v>
+        <v>1.009519544669332</v>
       </c>
       <c r="L11">
-        <v>0.9556971491766156</v>
+        <v>0.9973001652516905</v>
       </c>
       <c r="M11">
-        <v>0.8986638158523931</v>
-      </c>
-      <c r="N11">
-        <v>1.005704707400593</v>
+        <v>0.9969820956188796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9187762565241885</v>
+        <v>0.9657962241426604</v>
       </c>
       <c r="D12">
-        <v>0.9570348325356639</v>
+        <v>0.9922578335443439</v>
       </c>
       <c r="E12">
-        <v>0.9369314443432932</v>
+        <v>0.9794294574857259</v>
       </c>
       <c r="F12">
-        <v>0.8768088960918192</v>
+        <v>0.9788627197630509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.016860707013383</v>
+        <v>1.032945371759128</v>
       </c>
       <c r="J12">
-        <v>0.9524656035899929</v>
+        <v>0.9971221609720752</v>
       </c>
       <c r="K12">
-        <v>0.9730342179525654</v>
+        <v>1.007534879740242</v>
       </c>
       <c r="L12">
-        <v>0.9533756210220926</v>
+        <v>0.9949616606502157</v>
       </c>
       <c r="M12">
-        <v>0.8947494483921054</v>
-      </c>
-      <c r="N12">
-        <v>1.005704707400593</v>
+        <v>0.9944063985891376</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9194535655381827</v>
+        <v>0.9664170115501129</v>
       </c>
       <c r="D13">
-        <v>0.9575286352617841</v>
+        <v>0.9927399630995764</v>
       </c>
       <c r="E13">
-        <v>0.9374942584944769</v>
+        <v>0.9799907042509984</v>
       </c>
       <c r="F13">
-        <v>0.8777339989616905</v>
+        <v>0.979476199721517</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017086295992552</v>
+        <v>1.033186433542322</v>
       </c>
       <c r="J13">
-        <v>0.9529995013033249</v>
+        <v>0.9976158434127868</v>
       </c>
       <c r="K13">
-        <v>0.9734704578406185</v>
+        <v>1.007963081944749</v>
       </c>
       <c r="L13">
-        <v>0.9538771754506743</v>
+        <v>0.9954661990625445</v>
       </c>
       <c r="M13">
-        <v>0.8955958127994467</v>
-      </c>
-      <c r="N13">
-        <v>1.005704707400593</v>
+        <v>0.9949620609226623</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9216543182163096</v>
+        <v>0.9684374431275591</v>
       </c>
       <c r="D14">
-        <v>0.9591336393028947</v>
+        <v>0.9943094553455621</v>
       </c>
       <c r="E14">
-        <v>0.9393235469007992</v>
+        <v>0.9818175836135168</v>
       </c>
       <c r="F14">
-        <v>0.8807369050671443</v>
+        <v>0.9814731902370548</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.017818800114134</v>
+        <v>1.033970571310866</v>
       </c>
       <c r="J14">
-        <v>0.9547340423758506</v>
+        <v>0.9992225009940559</v>
       </c>
       <c r="K14">
-        <v>0.9748877441055427</v>
+        <v>1.009356601791243</v>
       </c>
       <c r="L14">
-        <v>0.9555068453919978</v>
+        <v>0.9971081686808896</v>
       </c>
       <c r="M14">
-        <v>0.8983432428970636</v>
-      </c>
-      <c r="N14">
-        <v>1.005704707400593</v>
+        <v>0.9967706021147025</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9229964349032775</v>
+        <v>0.9696720552310101</v>
       </c>
       <c r="D15">
-        <v>0.9601128201596556</v>
+        <v>0.9952687677377593</v>
       </c>
       <c r="E15">
-        <v>0.9404395462064917</v>
+        <v>0.9829340945602534</v>
       </c>
       <c r="F15">
-        <v>0.8825660038767593</v>
+        <v>0.9826937361066514</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.018265132851074</v>
+        <v>1.034449398946779</v>
       </c>
       <c r="J15">
-        <v>0.9557916652469283</v>
+        <v>1.000204195125107</v>
       </c>
       <c r="K15">
-        <v>0.975751932857663</v>
+        <v>1.010208035892646</v>
       </c>
       <c r="L15">
-        <v>0.9565006785145137</v>
+        <v>0.9981114254080493</v>
       </c>
       <c r="M15">
-        <v>0.9000168049042697</v>
-      </c>
-      <c r="N15">
-        <v>1.005704707400593</v>
+        <v>0.9978757838631718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,40 +953,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9306091363533697</v>
+        <v>0.9767089015367257</v>
       </c>
       <c r="D16">
-        <v>0.965672103842812</v>
+        <v>1.000740035346424</v>
       </c>
       <c r="E16">
-        <v>0.946775598522087</v>
+        <v>0.989300216398768</v>
       </c>
       <c r="F16">
-        <v>0.8929107956487858</v>
+        <v>0.989654153761268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02079092371431</v>
+        <v>1.037173454047992</v>
       </c>
       <c r="J16">
-        <v>0.9617879773895538</v>
+        <v>1.005798227611852</v>
       </c>
       <c r="K16">
-        <v>0.9806515150340042</v>
+        <v>1.015059302571586</v>
       </c>
       <c r="L16">
-        <v>0.9621375271284809</v>
+        <v>1.003828129222004</v>
       </c>
       <c r="M16">
-        <v>0.9094827483720711</v>
-      </c>
-      <c r="N16">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004175517012447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +991,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9352212942620003</v>
+        <v>0.980998928700747</v>
       </c>
       <c r="D17">
-        <v>0.969044293212493</v>
+        <v>1.004078415612984</v>
       </c>
       <c r="E17">
-        <v>0.9506191303867437</v>
+        <v>0.9931832704515844</v>
       </c>
       <c r="F17">
-        <v>0.8991546978115305</v>
+        <v>0.9939007257299901</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022315866958596</v>
+        <v>1.038829604722149</v>
       </c>
       <c r="J17">
-        <v>0.9654184500927341</v>
+        <v>1.009207394384882</v>
       </c>
       <c r="K17">
-        <v>0.9836177676828631</v>
+        <v>1.018015311330826</v>
       </c>
       <c r="L17">
-        <v>0.9655521677123658</v>
+        <v>1.007311886715597</v>
       </c>
       <c r="M17">
-        <v>0.915196599338681</v>
-      </c>
-      <c r="N17">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008016549204258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1029,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9378570972475105</v>
+        <v>0.9834592454835651</v>
       </c>
       <c r="D18">
-        <v>0.9709727713986676</v>
+        <v>1.005993874499694</v>
       </c>
       <c r="E18">
-        <v>0.952817283290305</v>
+        <v>0.9954108221560074</v>
       </c>
       <c r="F18">
-        <v>0.9027155843865289</v>
+        <v>0.9963372007412131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023185384766554</v>
+        <v>1.039777710846756</v>
       </c>
       <c r="J18">
-        <v>0.9674923513795499</v>
+        <v>1.011162043075968</v>
       </c>
       <c r="K18">
-        <v>0.9853120976444157</v>
+        <v>1.019709941763238</v>
       </c>
       <c r="L18">
-        <v>0.9675033829626263</v>
+        <v>1.009309243782915</v>
       </c>
       <c r="M18">
-        <v>0.9184552340295331</v>
-      </c>
-      <c r="N18">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010219459818288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1067,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9387469912721313</v>
+        <v>0.9842912675531675</v>
       </c>
       <c r="D19">
-        <v>0.971624066651563</v>
+        <v>1.00664178327707</v>
       </c>
       <c r="E19">
-        <v>0.953559681371883</v>
+        <v>0.9961642302068843</v>
       </c>
       <c r="F19">
-        <v>0.9039166260476945</v>
+        <v>0.9971613388631166</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023478609111669</v>
+        <v>1.040098047372573</v>
       </c>
       <c r="J19">
-        <v>0.9681923867078903</v>
+        <v>1.011822971138112</v>
       </c>
       <c r="K19">
-        <v>0.9858839817466442</v>
+        <v>1.020282913653908</v>
       </c>
       <c r="L19">
-        <v>0.9681621057482952</v>
+        <v>1.009984603234245</v>
       </c>
       <c r="M19">
-        <v>0.9195543266364057</v>
-      </c>
-      <c r="N19">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010964444252088</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1105,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9347321714242743</v>
+        <v>0.9805430497160897</v>
       </c>
       <c r="D20">
-        <v>0.9686865303393603</v>
+        <v>1.003723566418058</v>
       </c>
       <c r="E20">
-        <v>0.950211350184711</v>
+        <v>0.9927705711626758</v>
       </c>
       <c r="F20">
-        <v>0.8984933241115332</v>
+        <v>0.993449351044067</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02215434976716</v>
+        <v>1.038653789198193</v>
       </c>
       <c r="J20">
-        <v>0.9650335268608283</v>
+        <v>1.00884517059716</v>
       </c>
       <c r="K20">
-        <v>0.9833032817119802</v>
+        <v>1.017701255876883</v>
       </c>
       <c r="L20">
-        <v>0.9651900639902343</v>
+        <v>1.006941743790918</v>
       </c>
       <c r="M20">
-        <v>0.9145913643262582</v>
-      </c>
-      <c r="N20">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007608372075147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1143,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9210091657766699</v>
+        <v>0.9678446282872698</v>
       </c>
       <c r="D21">
-        <v>0.9586630507115788</v>
+        <v>0.9938488970259647</v>
       </c>
       <c r="E21">
-        <v>0.9387872011059756</v>
+        <v>0.9812815226098881</v>
       </c>
       <c r="F21">
-        <v>0.879857070428074</v>
+        <v>0.9808871989828952</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.017604145235952</v>
+        <v>1.033740566249043</v>
       </c>
       <c r="J21">
-        <v>0.9542255972838027</v>
+        <v>0.9987511070970794</v>
       </c>
       <c r="K21">
-        <v>0.9744722932968822</v>
+        <v>1.008947748581558</v>
       </c>
       <c r="L21">
-        <v>0.9550291084372625</v>
+        <v>0.9966264170854405</v>
       </c>
       <c r="M21">
-        <v>0.8975382445147221</v>
-      </c>
-      <c r="N21">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9962399476315514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1181,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.911788020313217</v>
+        <v>0.9594203958512177</v>
       </c>
       <c r="D22">
-        <v>0.9519444099987857</v>
+        <v>0.9873090286045044</v>
       </c>
       <c r="E22">
-        <v>0.931129303118995</v>
+        <v>0.9736671203673327</v>
       </c>
       <c r="F22">
-        <v>0.8672376055563581</v>
+        <v>0.9725647971533229</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014529262383075</v>
+        <v>1.030466146489248</v>
       </c>
       <c r="J22">
-        <v>0.9469551745756126</v>
+        <v>0.992051090958345</v>
       </c>
       <c r="K22">
-        <v>0.9685319984624498</v>
+        <v>1.003136159250262</v>
       </c>
       <c r="L22">
-        <v>0.9482007731774493</v>
+        <v>0.9897789301170657</v>
       </c>
       <c r="M22">
-        <v>0.8859939324948414</v>
-      </c>
-      <c r="N22">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9887000722780603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1219,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9167383418850659</v>
+        <v>0.9639313383447446</v>
       </c>
       <c r="D23">
-        <v>0.9555495125652302</v>
+        <v>0.9908097850570921</v>
       </c>
       <c r="E23">
-        <v>0.9352385174602367</v>
+        <v>0.9777436383788271</v>
       </c>
       <c r="F23">
-        <v>0.87402273909071</v>
+        <v>0.9770200828026671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016181529360733</v>
+        <v>1.032220844451571</v>
       </c>
       <c r="J23">
-        <v>0.9508589937477173</v>
+        <v>0.9956390303714331</v>
       </c>
       <c r="K23">
-        <v>0.9717215029974575</v>
+        <v>1.00624843688214</v>
       </c>
       <c r="L23">
-        <v>0.95186652008949</v>
+        <v>0.9934459007634184</v>
       </c>
       <c r="M23">
-        <v>0.8922005369395698</v>
-      </c>
-      <c r="N23">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9927372148844719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1257,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9349533520214848</v>
+        <v>0.9807491709110233</v>
       </c>
       <c r="D24">
-        <v>0.9688483061346208</v>
+        <v>1.003884005184512</v>
       </c>
       <c r="E24">
-        <v>0.9503957427720708</v>
+        <v>0.9929571671288165</v>
       </c>
       <c r="F24">
-        <v>0.8987924192399668</v>
+        <v>0.9936534323159573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022227393756121</v>
+        <v>1.038733287730139</v>
       </c>
       <c r="J24">
-        <v>0.9652075912975278</v>
+        <v>1.009008948076724</v>
       </c>
       <c r="K24">
-        <v>0.9834454944671768</v>
+        <v>1.017843254937907</v>
       </c>
       <c r="L24">
-        <v>0.9653538074326015</v>
+        <v>1.007109102045131</v>
       </c>
       <c r="M24">
-        <v>0.9148650715936263</v>
-      </c>
-      <c r="N24">
-        <v>1.005704707400593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007792925073722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9539821272476373</v>
+        <v>0.9986370007384687</v>
       </c>
       <c r="D25">
-        <v>0.9827890835239635</v>
+        <v>1.017823631521819</v>
       </c>
       <c r="E25">
-        <v>0.9662898161179974</v>
+        <v>1.009162095494808</v>
       </c>
       <c r="F25">
-        <v>0.9243943414281152</v>
+        <v>1.011385514657773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028468797455803</v>
+        <v>1.045595771891856</v>
       </c>
       <c r="J25">
-        <v>0.9801640195962406</v>
+        <v>1.023210322473501</v>
       </c>
       <c r="K25">
-        <v>0.9956605848071095</v>
+        <v>1.030151418810487</v>
       </c>
       <c r="L25">
-        <v>0.9794349973833546</v>
+        <v>1.021619827395488</v>
       </c>
       <c r="M25">
-        <v>0.9382918788984947</v>
-      </c>
-      <c r="N25">
-        <v>1.005704707400593</v>
+        <v>1.023809619333771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011842593279395</v>
+        <v>1.037658900038677</v>
       </c>
       <c r="D2">
-        <v>1.028131857655144</v>
+        <v>1.048018924439021</v>
       </c>
       <c r="E2">
-        <v>1.021138287204925</v>
+        <v>1.04690757006151</v>
       </c>
       <c r="F2">
-        <v>1.024503832807605</v>
+        <v>1.054539685581466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050606772329405</v>
+        <v>1.065387580586781</v>
       </c>
       <c r="J2">
-        <v>1.033674773303723</v>
+        <v>1.058768759433246</v>
       </c>
       <c r="K2">
-        <v>1.039212704172148</v>
+        <v>1.058847485010461</v>
       </c>
       <c r="L2">
-        <v>1.0323107821878</v>
+        <v>1.057749914201821</v>
       </c>
       <c r="M2">
-        <v>1.035632027679718</v>
+        <v>1.065288100090982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020912933778898</v>
+        <v>1.043770907599695</v>
       </c>
       <c r="D3">
-        <v>1.035218436708082</v>
+        <v>1.052685649086781</v>
       </c>
       <c r="E3">
-        <v>1.029369503007335</v>
+        <v>1.05222014095534</v>
       </c>
       <c r="F3">
-        <v>1.033528479868195</v>
+        <v>1.06029042203458</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054015106243062</v>
+        <v>1.067978373265716</v>
       </c>
       <c r="J3">
-        <v>1.040849283586161</v>
+        <v>1.063135508762618</v>
       </c>
       <c r="K3">
-        <v>1.04541968133192</v>
+        <v>1.062686027414451</v>
       </c>
       <c r="L3">
-        <v>1.039639895942</v>
+        <v>1.062225765857685</v>
       </c>
       <c r="M3">
-        <v>1.04374960425081</v>
+        <v>1.070205891948582</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026568898342569</v>
+        <v>1.047626458581197</v>
       </c>
       <c r="D4">
-        <v>1.039639277693717</v>
+        <v>1.055631426941658</v>
       </c>
       <c r="E4">
-        <v>1.034504066959557</v>
+        <v>1.05557598253468</v>
       </c>
       <c r="F4">
-        <v>1.039162071107593</v>
+        <v>1.063924405324727</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056124461717843</v>
+        <v>1.069601783870036</v>
       </c>
       <c r="J4">
-        <v>1.045316550116576</v>
+        <v>1.065885640927507</v>
       </c>
       <c r="K4">
-        <v>1.049281719620892</v>
+        <v>1.065101776167554</v>
       </c>
       <c r="L4">
-        <v>1.044203156699267</v>
+        <v>1.065046917381823</v>
       </c>
       <c r="M4">
-        <v>1.048809748235512</v>
+        <v>1.073308000594452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02889911562925</v>
+        <v>1.049224640165424</v>
       </c>
       <c r="D5">
-        <v>1.041460947143083</v>
+        <v>1.05685289186176</v>
       </c>
       <c r="E5">
-        <v>1.036619836263286</v>
+        <v>1.056968072146977</v>
       </c>
       <c r="F5">
-        <v>1.041484478816522</v>
+        <v>1.065432211960322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056989600556079</v>
+        <v>1.070272053093512</v>
       </c>
       <c r="J5">
-        <v>1.04715540166971</v>
+        <v>1.067024491750058</v>
       </c>
       <c r="K5">
-        <v>1.050870740522381</v>
+        <v>1.066101730283454</v>
       </c>
       <c r="L5">
-        <v>1.046081464229922</v>
+        <v>1.066215727668884</v>
       </c>
       <c r="M5">
-        <v>1.050894021679004</v>
+        <v>1.074593792750915</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029287675314007</v>
+        <v>1.049491681480567</v>
       </c>
       <c r="D6">
-        <v>1.041764722059929</v>
+        <v>1.057057008811418</v>
       </c>
       <c r="E6">
-        <v>1.0369726564773</v>
+        <v>1.057200737269784</v>
       </c>
       <c r="F6">
-        <v>1.041871817473405</v>
+        <v>1.065684237377893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057133629535561</v>
+        <v>1.070383891381667</v>
       </c>
       <c r="J6">
-        <v>1.047461929223258</v>
+        <v>1.067214716156783</v>
       </c>
       <c r="K6">
-        <v>1.051135580300099</v>
+        <v>1.066268729110342</v>
       </c>
       <c r="L6">
-        <v>1.046394565700034</v>
+        <v>1.066410988489589</v>
       </c>
       <c r="M6">
-        <v>1.051241541365505</v>
+        <v>1.074808630782276</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026600217335652</v>
+        <v>1.047647901341029</v>
       </c>
       <c r="D7">
-        <v>1.039663760541464</v>
+        <v>1.055647813817985</v>
       </c>
       <c r="E7">
-        <v>1.034532502341477</v>
+        <v>1.055594656104264</v>
       </c>
       <c r="F7">
-        <v>1.039193279631373</v>
+        <v>1.063944629785292</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056136105056164</v>
+        <v>1.069610787418925</v>
       </c>
       <c r="J7">
-        <v>1.045341271516115</v>
+        <v>1.065900925337964</v>
       </c>
       <c r="K7">
-        <v>1.049303085138921</v>
+        <v>1.065115198159315</v>
       </c>
       <c r="L7">
-        <v>1.04422840876266</v>
+        <v>1.065062601705309</v>
       </c>
       <c r="M7">
-        <v>1.048837763589225</v>
+        <v>1.073325252400734</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.014954308764917</v>
+        <v>1.039745725704398</v>
       </c>
       <c r="D8">
-        <v>1.030562525297191</v>
+        <v>1.049611837549157</v>
       </c>
       <c r="E8">
-        <v>1.023961684987569</v>
+        <v>1.048720443034024</v>
       </c>
       <c r="F8">
-        <v>1.027598535384086</v>
+        <v>1.056501799156289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051779394073034</v>
+        <v>1.066274423639649</v>
       </c>
       <c r="J8">
-        <v>1.03613743608011</v>
+        <v>1.060260616641856</v>
       </c>
       <c r="K8">
-        <v>1.041343829573785</v>
+        <v>1.060159241043305</v>
       </c>
       <c r="L8">
-        <v>1.034826574723816</v>
+        <v>1.059278556459987</v>
       </c>
       <c r="M8">
-        <v>1.03841720642469</v>
+        <v>1.066967176330643</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9926209196884241</v>
+        <v>1.025007455103812</v>
       </c>
       <c r="D9">
-        <v>1.013132043215378</v>
+        <v>1.038373089218924</v>
       </c>
       <c r="E9">
-        <v>1.003709572292719</v>
+        <v>1.035939144294421</v>
       </c>
       <c r="F9">
-        <v>1.005417079086213</v>
+        <v>1.04267369401727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043296395927693</v>
+        <v>1.059966169677675</v>
       </c>
       <c r="J9">
-        <v>1.018436970531197</v>
+        <v>1.049707022507359</v>
       </c>
       <c r="K9">
-        <v>1.026015595480452</v>
+        <v>1.050872824128076</v>
       </c>
       <c r="L9">
-        <v>1.016742749624959</v>
+        <v>1.048474854217124</v>
       </c>
       <c r="M9">
-        <v>1.018422875133532</v>
+        <v>1.055110384544909</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9762182171247884</v>
+        <v>1.014553893808132</v>
       </c>
       <c r="D10">
-        <v>1.000358330574744</v>
+        <v>1.030419614393365</v>
       </c>
       <c r="E10">
-        <v>0.9888561722318717</v>
+        <v>1.026905009402844</v>
       </c>
       <c r="F10">
-        <v>0.9891685916316449</v>
+        <v>1.032906005229405</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036983797756601</v>
+        <v>1.055436660097858</v>
       </c>
       <c r="J10">
-        <v>1.005408229311268</v>
+        <v>1.042201744439001</v>
       </c>
       <c r="K10">
-        <v>1.014721118264876</v>
+        <v>1.044260527913742</v>
       </c>
       <c r="L10">
-        <v>1.003429589776153</v>
+        <v>1.040804903111719</v>
       </c>
       <c r="M10">
-        <v>1.003736203674274</v>
+        <v>1.046705505640425</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9686737081727362</v>
+        <v>1.009857991866569</v>
       </c>
       <c r="D11">
-        <v>0.994493022154374</v>
+        <v>1.026852309558256</v>
       </c>
       <c r="E11">
-        <v>0.9820312378936338</v>
+        <v>1.022855278930815</v>
       </c>
       <c r="F11">
-        <v>0.9817067483213013</v>
+        <v>1.028528776448357</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034062223175541</v>
+        <v>1.053389558721976</v>
       </c>
       <c r="J11">
-        <v>0.9994103702738002</v>
+        <v>1.038826340485895</v>
       </c>
       <c r="K11">
-        <v>1.009519544669332</v>
+        <v>1.041284995864552</v>
       </c>
       <c r="L11">
-        <v>0.9973001652516905</v>
+        <v>1.037358676554266</v>
       </c>
       <c r="M11">
-        <v>0.9969820956188796</v>
+        <v>1.042932016411418</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9657962241426604</v>
+        <v>1.008086319925201</v>
       </c>
       <c r="D12">
-        <v>0.9922578335443439</v>
+        <v>1.025507381473337</v>
       </c>
       <c r="E12">
-        <v>0.9794294574857259</v>
+        <v>1.021328780451936</v>
       </c>
       <c r="F12">
-        <v>0.9788627197630509</v>
+        <v>1.026879015131652</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032945371759128</v>
+        <v>1.052615435366528</v>
       </c>
       <c r="J12">
-        <v>0.9971221609720752</v>
+        <v>1.037552351589203</v>
       </c>
       <c r="K12">
-        <v>1.007534879740242</v>
+        <v>1.040161689960876</v>
       </c>
       <c r="L12">
-        <v>0.9949616606502157</v>
+        <v>1.036058453450297</v>
       </c>
       <c r="M12">
-        <v>0.9944063985891376</v>
+        <v>1.041508758713598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9664170115501129</v>
+        <v>1.008467623155179</v>
       </c>
       <c r="D13">
-        <v>0.9927399630995764</v>
+        <v>1.025796795223489</v>
       </c>
       <c r="E13">
-        <v>0.9799907042509984</v>
+        <v>1.02165725259968</v>
       </c>
       <c r="F13">
-        <v>0.979476199721517</v>
+        <v>1.027234002966479</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033186433542322</v>
+        <v>1.052782123724154</v>
       </c>
       <c r="J13">
-        <v>0.9976158434127868</v>
+        <v>1.037826564365089</v>
       </c>
       <c r="K13">
-        <v>1.007963081944749</v>
+        <v>1.040403480404199</v>
       </c>
       <c r="L13">
-        <v>0.9954661990625445</v>
+        <v>1.036338290265953</v>
       </c>
       <c r="M13">
-        <v>0.9949620609226623</v>
+        <v>1.041815055611929</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9684374431275591</v>
+        <v>1.009712115932096</v>
       </c>
       <c r="D14">
-        <v>0.9943094553455621</v>
+        <v>1.026741550946994</v>
       </c>
       <c r="E14">
-        <v>0.9818175836135168</v>
+        <v>1.022729561344966</v>
       </c>
       <c r="F14">
-        <v>0.9814731902370548</v>
+        <v>1.028392903690662</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033970571310866</v>
+        <v>1.053325854920942</v>
       </c>
       <c r="J14">
-        <v>0.9992225009940559</v>
+        <v>1.038721452791658</v>
       </c>
       <c r="K14">
-        <v>1.009356601791243</v>
+        <v>1.041192518719597</v>
       </c>
       <c r="L14">
-        <v>0.9971081686808896</v>
+        <v>1.0372516188515</v>
       </c>
       <c r="M14">
-        <v>0.9967706021147025</v>
+        <v>1.042814819433732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9696720552310101</v>
+        <v>1.010475195961184</v>
       </c>
       <c r="D15">
-        <v>0.9952687677377593</v>
+        <v>1.0273209707598</v>
       </c>
       <c r="E15">
-        <v>0.9829340945602534</v>
+        <v>1.023387249652656</v>
       </c>
       <c r="F15">
-        <v>0.9826937361066514</v>
+        <v>1.029103725901229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034449398946779</v>
+        <v>1.053659018306014</v>
       </c>
       <c r="J15">
-        <v>1.000204195125107</v>
+        <v>1.039270101981721</v>
       </c>
       <c r="K15">
-        <v>1.010208035892646</v>
+        <v>1.041676240770176</v>
       </c>
       <c r="L15">
-        <v>0.9981114254080493</v>
+        <v>1.037811639246339</v>
       </c>
       <c r="M15">
-        <v>0.9978757838631718</v>
+        <v>1.04342789631381</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9767089015367257</v>
+        <v>1.014861813551639</v>
       </c>
       <c r="D16">
-        <v>1.000740035346424</v>
+        <v>1.030653653967625</v>
       </c>
       <c r="E16">
-        <v>0.989300216398768</v>
+        <v>1.027170744125968</v>
       </c>
       <c r="F16">
-        <v>0.989654153761268</v>
+        <v>1.033193256023491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037173454047992</v>
+        <v>1.055570641298553</v>
       </c>
       <c r="J16">
-        <v>1.005798227611852</v>
+        <v>1.042423001212619</v>
       </c>
       <c r="K16">
-        <v>1.015059302571586</v>
+        <v>1.044455538745368</v>
       </c>
       <c r="L16">
-        <v>1.003828129222004</v>
+        <v>1.041030870292974</v>
       </c>
       <c r="M16">
-        <v>1.004175517012447</v>
+        <v>1.046952992069215</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.980998928700747</v>
+        <v>1.017566743487991</v>
       </c>
       <c r="D17">
-        <v>1.004078415612984</v>
+        <v>1.032710219907515</v>
       </c>
       <c r="E17">
-        <v>0.9931832704515844</v>
+        <v>1.029506077830907</v>
       </c>
       <c r="F17">
-        <v>0.9939007257299901</v>
+        <v>1.035717826774021</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038829604722149</v>
+        <v>1.056746208633627</v>
       </c>
       <c r="J17">
-        <v>1.009207394384882</v>
+        <v>1.044366202325524</v>
       </c>
       <c r="K17">
-        <v>1.018015311330826</v>
+        <v>1.046168038934379</v>
       </c>
       <c r="L17">
-        <v>1.007311886715597</v>
+        <v>1.043015808478618</v>
       </c>
       <c r="M17">
-        <v>1.008016549204258</v>
+        <v>1.049127293088971</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9834592454835651</v>
+        <v>1.019128276319963</v>
       </c>
       <c r="D18">
-        <v>1.005993874499694</v>
+        <v>1.033897970603177</v>
       </c>
       <c r="E18">
-        <v>0.9954108221560074</v>
+        <v>1.030855045144325</v>
       </c>
       <c r="F18">
-        <v>0.9963372007412131</v>
+        <v>1.037176230751146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039777710846756</v>
+        <v>1.057423680924348</v>
       </c>
       <c r="J18">
-        <v>1.011162043075968</v>
+        <v>1.045487620912455</v>
       </c>
       <c r="K18">
-        <v>1.019709941763238</v>
+        <v>1.047156155375444</v>
       </c>
       <c r="L18">
-        <v>1.009309243782915</v>
+        <v>1.044161618055848</v>
       </c>
       <c r="M18">
-        <v>1.010219459818288</v>
+        <v>1.050382691660737</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9842912675531675</v>
+        <v>1.019658025685265</v>
       </c>
       <c r="D19">
-        <v>1.00664178327707</v>
+        <v>1.034300998203091</v>
       </c>
       <c r="E19">
-        <v>0.9961642302068843</v>
+        <v>1.031312814423405</v>
       </c>
       <c r="F19">
-        <v>0.9971613388631166</v>
+        <v>1.037671159140005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040098047372573</v>
+        <v>1.057653312294514</v>
       </c>
       <c r="J19">
-        <v>1.011822971138112</v>
+        <v>1.045867996054571</v>
       </c>
       <c r="K19">
-        <v>1.020282913653908</v>
+        <v>1.047491287100765</v>
       </c>
       <c r="L19">
-        <v>1.009984603234245</v>
+        <v>1.044550317783906</v>
       </c>
       <c r="M19">
-        <v>1.010964444252088</v>
+        <v>1.050808615379729</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9805430497160897</v>
+        <v>1.017278219931516</v>
       </c>
       <c r="D20">
-        <v>1.003723566418058</v>
+        <v>1.032490800569355</v>
       </c>
       <c r="E20">
-        <v>0.9927705711626758</v>
+        <v>1.029256893865617</v>
       </c>
       <c r="F20">
-        <v>0.993449351044067</v>
+        <v>1.035448437831512</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038653789198193</v>
+        <v>1.056620937100281</v>
       </c>
       <c r="J20">
-        <v>1.00884517059716</v>
+        <v>1.044158967608161</v>
       </c>
       <c r="K20">
-        <v>1.017701255876883</v>
+        <v>1.04598542456306</v>
       </c>
       <c r="L20">
-        <v>1.006941743790918</v>
+        <v>1.042804090964082</v>
       </c>
       <c r="M20">
-        <v>1.007608372075147</v>
+        <v>1.048895348825081</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9678446282872698</v>
+        <v>1.009346416977845</v>
       </c>
       <c r="D21">
-        <v>0.9938488970259647</v>
+        <v>1.026463903872343</v>
       </c>
       <c r="E21">
-        <v>0.9812815226098881</v>
+        <v>1.022414420371536</v>
       </c>
       <c r="F21">
-        <v>0.9808871989828952</v>
+        <v>1.028052309269466</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033740566249043</v>
+        <v>1.053166126136903</v>
       </c>
       <c r="J21">
-        <v>0.9987511070970794</v>
+        <v>1.038458499952453</v>
       </c>
       <c r="K21">
-        <v>1.008947748581558</v>
+        <v>1.040960675229654</v>
       </c>
       <c r="L21">
-        <v>0.9966264170854405</v>
+        <v>1.036983233841203</v>
       </c>
       <c r="M21">
-        <v>0.9962399476315514</v>
+        <v>1.042521023110067</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9594203958512177</v>
+        <v>1.004199706658278</v>
       </c>
       <c r="D22">
-        <v>0.9873090286045044</v>
+        <v>1.022558820326158</v>
       </c>
       <c r="E22">
-        <v>0.9736671203673327</v>
+        <v>1.017982690665949</v>
       </c>
       <c r="F22">
-        <v>0.9725647971533229</v>
+        <v>1.023263052179462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030466146489248</v>
+        <v>1.050913976706469</v>
       </c>
       <c r="J22">
-        <v>0.992051090958345</v>
+        <v>1.03475667058477</v>
       </c>
       <c r="K22">
-        <v>1.003136159250262</v>
+        <v>1.037696248793944</v>
       </c>
       <c r="L22">
-        <v>0.9897789301170657</v>
+        <v>1.033206130588738</v>
       </c>
       <c r="M22">
-        <v>0.9887000722780603</v>
+        <v>1.038387333264451</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9639313383447446</v>
+        <v>1.00694391403646</v>
       </c>
       <c r="D23">
-        <v>0.9908097850570921</v>
+        <v>1.0246404298443</v>
       </c>
       <c r="E23">
-        <v>0.9777436383788271</v>
+        <v>1.020344870878787</v>
       </c>
       <c r="F23">
-        <v>0.9770200828026671</v>
+        <v>1.025815705757502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032220844451571</v>
+        <v>1.052115770503325</v>
       </c>
       <c r="J23">
-        <v>0.9956390303714331</v>
+        <v>1.036730725217909</v>
       </c>
       <c r="K23">
-        <v>1.00624843688214</v>
+        <v>1.039437177007589</v>
       </c>
       <c r="L23">
-        <v>0.9934459007634184</v>
+        <v>1.035220049354296</v>
       </c>
       <c r="M23">
-        <v>0.9927372148844719</v>
+        <v>1.040591142745471</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9807491709110233</v>
+        <v>1.017408641247766</v>
       </c>
       <c r="D24">
-        <v>1.003884005184512</v>
+        <v>1.032589983119699</v>
       </c>
       <c r="E24">
-        <v>0.9929571671288165</v>
+        <v>1.029369530031742</v>
       </c>
       <c r="F24">
-        <v>0.9936534323159573</v>
+        <v>1.035570206658656</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038733287730139</v>
+        <v>1.056677567241711</v>
       </c>
       <c r="J24">
-        <v>1.009008948076724</v>
+        <v>1.044252645095335</v>
       </c>
       <c r="K24">
-        <v>1.017843254937907</v>
+        <v>1.046067973288783</v>
       </c>
       <c r="L24">
-        <v>1.007109102045131</v>
+        <v>1.042899793890814</v>
       </c>
       <c r="M24">
-        <v>1.007792925073722</v>
+        <v>1.049000194007916</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9986370007384687</v>
+        <v>1.028921965635354</v>
       </c>
       <c r="D25">
-        <v>1.017823631521819</v>
+        <v>1.041355434305444</v>
       </c>
       <c r="E25">
-        <v>1.009162095494808</v>
+        <v>1.039328840985372</v>
       </c>
       <c r="F25">
-        <v>1.011385514657773</v>
+        <v>1.046339867902638</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045595771891856</v>
+        <v>1.061651321330036</v>
       </c>
       <c r="J25">
-        <v>1.023210322473501</v>
+        <v>1.052513709742251</v>
       </c>
       <c r="K25">
-        <v>1.030151418810487</v>
+        <v>1.053343973097361</v>
       </c>
       <c r="L25">
-        <v>1.021619827395488</v>
+        <v>1.051345832456555</v>
       </c>
       <c r="M25">
-        <v>1.023809619333771</v>
+        <v>1.05825901827661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.037658900038677</v>
+        <v>1.064198653302102</v>
       </c>
       <c r="D2">
-        <v>1.048018924439021</v>
+        <v>1.061752694166239</v>
       </c>
       <c r="E2">
-        <v>1.04690757006151</v>
+        <v>1.069076882600384</v>
       </c>
       <c r="F2">
-        <v>1.054539685581466</v>
+        <v>1.078871629810596</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065387580586781</v>
+        <v>1.055988313694664</v>
       </c>
       <c r="J2">
-        <v>1.058768759433246</v>
+        <v>1.069160123005274</v>
       </c>
       <c r="K2">
-        <v>1.058847485010461</v>
+        <v>1.06447590068766</v>
       </c>
       <c r="L2">
-        <v>1.057749914201821</v>
+        <v>1.071780355622972</v>
       </c>
       <c r="M2">
-        <v>1.065288100090982</v>
+        <v>1.081549165381923</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.043770907599695</v>
+        <v>1.065430994089893</v>
       </c>
       <c r="D3">
-        <v>1.052685649086781</v>
+        <v>1.062697770233633</v>
       </c>
       <c r="E3">
-        <v>1.05222014095534</v>
+        <v>1.070189976582276</v>
       </c>
       <c r="F3">
-        <v>1.06029042203458</v>
+        <v>1.080090757819482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067978373265716</v>
+        <v>1.056427830243159</v>
       </c>
       <c r="J3">
-        <v>1.063135508762618</v>
+        <v>1.070046242116564</v>
       </c>
       <c r="K3">
-        <v>1.062686027414451</v>
+        <v>1.065235330747638</v>
       </c>
       <c r="L3">
-        <v>1.062225765857685</v>
+        <v>1.072708813494197</v>
       </c>
       <c r="M3">
-        <v>1.070205891948582</v>
+        <v>1.082585280450773</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047626458581197</v>
+        <v>1.066227995820214</v>
       </c>
       <c r="D4">
-        <v>1.055631426941658</v>
+        <v>1.063308840469845</v>
       </c>
       <c r="E4">
-        <v>1.05557598253468</v>
+        <v>1.07091003792658</v>
       </c>
       <c r="F4">
-        <v>1.063924405324727</v>
+        <v>1.080879649755083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069601783870036</v>
+        <v>1.056710730055846</v>
       </c>
       <c r="J4">
-        <v>1.065885640927507</v>
+        <v>1.070618669374012</v>
       </c>
       <c r="K4">
-        <v>1.065101776167554</v>
+        <v>1.065725650571289</v>
       </c>
       <c r="L4">
-        <v>1.065046917381823</v>
+        <v>1.073308810367187</v>
       </c>
       <c r="M4">
-        <v>1.073308000594452</v>
+        <v>1.083255176655956</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049224640165424</v>
+        <v>1.066562960649962</v>
       </c>
       <c r="D5">
-        <v>1.05685289186176</v>
+        <v>1.063565626036134</v>
       </c>
       <c r="E5">
-        <v>1.056968072146977</v>
+        <v>1.071212708961712</v>
       </c>
       <c r="F5">
-        <v>1.065432211960322</v>
+        <v>1.081211309921249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070272053093512</v>
+        <v>1.056829303615877</v>
       </c>
       <c r="J5">
-        <v>1.067024491750058</v>
+        <v>1.070859091538858</v>
       </c>
       <c r="K5">
-        <v>1.066101730283454</v>
+        <v>1.065931523095783</v>
       </c>
       <c r="L5">
-        <v>1.066215727668884</v>
+        <v>1.073560864351585</v>
       </c>
       <c r="M5">
-        <v>1.074593792750915</v>
+        <v>1.083536673403854</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.049491681480567</v>
+        <v>1.066619197232511</v>
       </c>
       <c r="D6">
-        <v>1.057057008811418</v>
+        <v>1.063608735139855</v>
       </c>
       <c r="E6">
-        <v>1.057200737269784</v>
+        <v>1.071263526297082</v>
       </c>
       <c r="F6">
-        <v>1.065684237377893</v>
+        <v>1.081266997758559</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070383891381667</v>
+        <v>1.056849191696733</v>
       </c>
       <c r="J6">
-        <v>1.067214716156783</v>
+        <v>1.070899446252187</v>
       </c>
       <c r="K6">
-        <v>1.066268729110342</v>
+        <v>1.065966074906923</v>
       </c>
       <c r="L6">
-        <v>1.066410988489589</v>
+        <v>1.073603174535058</v>
       </c>
       <c r="M6">
-        <v>1.074808630782276</v>
+        <v>1.083583930507927</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047647901341029</v>
+        <v>1.066232472005882</v>
       </c>
       <c r="D7">
-        <v>1.055647813817985</v>
+        <v>1.063312272075578</v>
       </c>
       <c r="E7">
-        <v>1.055594656104264</v>
+        <v>1.070914082397871</v>
       </c>
       <c r="F7">
-        <v>1.063944629785292</v>
+        <v>1.08088408137303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069610787418925</v>
+        <v>1.05671231584536</v>
       </c>
       <c r="J7">
-        <v>1.065900925337964</v>
+        <v>1.070621882793982</v>
       </c>
       <c r="K7">
-        <v>1.065115198159315</v>
+        <v>1.065728402462085</v>
       </c>
       <c r="L7">
-        <v>1.065062601705309</v>
+        <v>1.073312179048834</v>
       </c>
       <c r="M7">
-        <v>1.073325252400734</v>
+        <v>1.083258938528792</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.039745725704398</v>
+        <v>1.064615213917317</v>
       </c>
       <c r="D8">
-        <v>1.049611837549157</v>
+        <v>1.062072182364863</v>
       </c>
       <c r="E8">
-        <v>1.048720443034024</v>
+        <v>1.069453097115555</v>
       </c>
       <c r="F8">
-        <v>1.056501799156289</v>
+        <v>1.079283633699152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066274423639649</v>
+        <v>1.056137160777981</v>
       </c>
       <c r="J8">
-        <v>1.060260616641856</v>
+        <v>1.069459788893503</v>
       </c>
       <c r="K8">
-        <v>1.060159241043305</v>
+        <v>1.064732778404908</v>
       </c>
       <c r="L8">
-        <v>1.059278556459987</v>
+        <v>1.072094294141568</v>
       </c>
       <c r="M8">
-        <v>1.066967176330643</v>
+        <v>1.081899437965073</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.025007455103812</v>
+        <v>1.06176219230467</v>
       </c>
       <c r="D9">
-        <v>1.038373089218924</v>
+        <v>1.059883435266897</v>
       </c>
       <c r="E9">
-        <v>1.035939144294421</v>
+        <v>1.066877170374092</v>
       </c>
       <c r="F9">
-        <v>1.04267369401727</v>
+        <v>1.076463628233203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059966169677675</v>
+        <v>1.055112163930701</v>
       </c>
       <c r="J9">
-        <v>1.049707022507359</v>
+        <v>1.067404682556591</v>
       </c>
       <c r="K9">
-        <v>1.050872824128076</v>
+        <v>1.062970021233544</v>
       </c>
       <c r="L9">
-        <v>1.048474854217124</v>
+        <v>1.069942206946031</v>
       </c>
       <c r="M9">
-        <v>1.055110384544909</v>
+        <v>1.079499622537262</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.014553893808132</v>
+        <v>1.059857875839255</v>
       </c>
       <c r="D10">
-        <v>1.030419614393365</v>
+        <v>1.058421812081613</v>
       </c>
       <c r="E10">
-        <v>1.026905009402844</v>
+        <v>1.06515879068591</v>
       </c>
       <c r="F10">
-        <v>1.032906005229405</v>
+        <v>1.074583640562616</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055436660097858</v>
+        <v>1.054421048199815</v>
       </c>
       <c r="J10">
-        <v>1.042201744439001</v>
+        <v>1.066029578861576</v>
       </c>
       <c r="K10">
-        <v>1.044260527913742</v>
+        <v>1.061789167546999</v>
       </c>
       <c r="L10">
-        <v>1.040804903111719</v>
+        <v>1.068503344111922</v>
       </c>
       <c r="M10">
-        <v>1.046705505640425</v>
+        <v>1.077896820993713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009857991866569</v>
+        <v>1.059032706522831</v>
       </c>
       <c r="D11">
-        <v>1.026852309558256</v>
+        <v>1.057788313359612</v>
       </c>
       <c r="E11">
-        <v>1.022855278930815</v>
+        <v>1.064414431103091</v>
       </c>
       <c r="F11">
-        <v>1.028528776448357</v>
+        <v>1.073769563612397</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053389558721976</v>
+        <v>1.054119928966758</v>
       </c>
       <c r="J11">
-        <v>1.038826340485895</v>
+        <v>1.065432928899487</v>
       </c>
       <c r="K11">
-        <v>1.041284995864552</v>
+        <v>1.061276479869945</v>
       </c>
       <c r="L11">
-        <v>1.037358676554266</v>
+        <v>1.067879298075045</v>
       </c>
       <c r="M11">
-        <v>1.042932016411418</v>
+        <v>1.077202073679487</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.008086319925201</v>
+        <v>1.058726110640815</v>
       </c>
       <c r="D12">
-        <v>1.025507381473337</v>
+        <v>1.057552911116605</v>
       </c>
       <c r="E12">
-        <v>1.021328780451936</v>
+        <v>1.064137897236373</v>
       </c>
       <c r="F12">
-        <v>1.026879015131652</v>
+        <v>1.07346717241756</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052615435366528</v>
+        <v>1.054007799083726</v>
       </c>
       <c r="J12">
-        <v>1.037552351589203</v>
+        <v>1.065211121181614</v>
       </c>
       <c r="K12">
-        <v>1.040161689960876</v>
+        <v>1.061085837401708</v>
       </c>
       <c r="L12">
-        <v>1.036058453450297</v>
+        <v>1.067647346103436</v>
       </c>
       <c r="M12">
-        <v>1.041508758713598</v>
+        <v>1.076943902803432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.008467623155179</v>
+        <v>1.058791880675441</v>
       </c>
       <c r="D13">
-        <v>1.025796795223489</v>
+        <v>1.057603409912322</v>
       </c>
       <c r="E13">
-        <v>1.02165725259968</v>
+        <v>1.064197216784531</v>
       </c>
       <c r="F13">
-        <v>1.027234002966479</v>
+        <v>1.073532036698313</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052782123724154</v>
+        <v>1.054031864048638</v>
       </c>
       <c r="J13">
-        <v>1.037826564365089</v>
+        <v>1.065258708108628</v>
       </c>
       <c r="K13">
-        <v>1.040403480404199</v>
+        <v>1.06112674027062</v>
       </c>
       <c r="L13">
-        <v>1.036338290265953</v>
+        <v>1.067697107565047</v>
       </c>
       <c r="M13">
-        <v>1.041815055611929</v>
+        <v>1.076999286379454</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009712115932096</v>
+        <v>1.059007365090337</v>
       </c>
       <c r="D14">
-        <v>1.026741550946994</v>
+        <v>1.057768856834886</v>
       </c>
       <c r="E14">
-        <v>1.022729561344966</v>
+        <v>1.064391573668882</v>
       </c>
       <c r="F14">
-        <v>1.028392903690662</v>
+        <v>1.073744568013185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053325854920942</v>
+        <v>1.054110666010181</v>
       </c>
       <c r="J14">
-        <v>1.038721452791658</v>
+        <v>1.065414597996645</v>
       </c>
       <c r="K14">
-        <v>1.041192518719597</v>
+        <v>1.061260725544837</v>
       </c>
       <c r="L14">
-        <v>1.0372516188515</v>
+        <v>1.067860127994864</v>
       </c>
       <c r="M14">
-        <v>1.042814819433732</v>
+        <v>1.077180735466388</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010475195961184</v>
+        <v>1.05914011996915</v>
       </c>
       <c r="D15">
-        <v>1.0273209707598</v>
+        <v>1.057870781826546</v>
       </c>
       <c r="E15">
-        <v>1.023387249652656</v>
+        <v>1.064511317259958</v>
       </c>
       <c r="F15">
-        <v>1.029103725901229</v>
+        <v>1.073875514605491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053659018306014</v>
+        <v>1.054159181258383</v>
       </c>
       <c r="J15">
-        <v>1.039270101981721</v>
+        <v>1.065510622282771</v>
       </c>
       <c r="K15">
-        <v>1.041676240770176</v>
+        <v>1.061343250759683</v>
       </c>
       <c r="L15">
-        <v>1.037811639246339</v>
+        <v>1.067960549866282</v>
       </c>
       <c r="M15">
-        <v>1.04342789631381</v>
+        <v>1.07729251749477</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014861813551639</v>
+        <v>1.059912626974161</v>
       </c>
       <c r="D16">
-        <v>1.030653653967625</v>
+        <v>1.058463842402173</v>
       </c>
       <c r="E16">
-        <v>1.027170744125968</v>
+        <v>1.065208185100226</v>
       </c>
       <c r="F16">
-        <v>1.033193256023491</v>
+        <v>1.074637667344712</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055570641298553</v>
+        <v>1.054440993175613</v>
       </c>
       <c r="J16">
-        <v>1.042423001212619</v>
+        <v>1.066069150666266</v>
       </c>
       <c r="K16">
-        <v>1.044455538745368</v>
+        <v>1.061823163935975</v>
       </c>
       <c r="L16">
-        <v>1.041030870292974</v>
+        <v>1.0685447385724</v>
       </c>
       <c r="M16">
-        <v>1.046952992069215</v>
+        <v>1.0779429136617</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.017566743487991</v>
+        <v>1.060397040772176</v>
       </c>
       <c r="D17">
-        <v>1.032710219907515</v>
+        <v>1.058835690246593</v>
       </c>
       <c r="E17">
-        <v>1.029506077830907</v>
+        <v>1.065645232855506</v>
       </c>
       <c r="F17">
-        <v>1.035717826774021</v>
+        <v>1.075115736014019</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056746208633627</v>
+        <v>1.054617267167105</v>
       </c>
       <c r="J17">
-        <v>1.044366202325524</v>
+        <v>1.066419172520121</v>
       </c>
       <c r="K17">
-        <v>1.046168038934379</v>
+        <v>1.062123832829888</v>
       </c>
       <c r="L17">
-        <v>1.043015808478618</v>
+        <v>1.068910913248003</v>
       </c>
       <c r="M17">
-        <v>1.049127293088971</v>
+        <v>1.078350694789242</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019128276319963</v>
+        <v>1.060679534639767</v>
       </c>
       <c r="D18">
-        <v>1.033897970603177</v>
+        <v>1.059052524414765</v>
       </c>
       <c r="E18">
-        <v>1.030855045144325</v>
+        <v>1.065900127590292</v>
       </c>
       <c r="F18">
-        <v>1.037176230751146</v>
+        <v>1.075394582652771</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057423680924348</v>
+        <v>1.054719905266353</v>
       </c>
       <c r="J18">
-        <v>1.045487620912455</v>
+        <v>1.066623216668643</v>
       </c>
       <c r="K18">
-        <v>1.047156155375444</v>
+        <v>1.062299075808164</v>
       </c>
       <c r="L18">
-        <v>1.044161618055848</v>
+        <v>1.06912439952358</v>
       </c>
       <c r="M18">
-        <v>1.050382691660737</v>
+        <v>1.078588476939238</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.019658025685265</v>
+        <v>1.060775848253016</v>
       </c>
       <c r="D19">
-        <v>1.034300998203091</v>
+        <v>1.059126449404728</v>
       </c>
       <c r="E19">
-        <v>1.031312814423405</v>
+        <v>1.065987035448774</v>
       </c>
       <c r="F19">
-        <v>1.037671159140005</v>
+        <v>1.075489661756233</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057653312294514</v>
+        <v>1.054754871786513</v>
       </c>
       <c r="J19">
-        <v>1.045867996054571</v>
+        <v>1.066692770547775</v>
       </c>
       <c r="K19">
-        <v>1.047491287100765</v>
+        <v>1.062358806775725</v>
       </c>
       <c r="L19">
-        <v>1.044550317783906</v>
+        <v>1.069197176394004</v>
       </c>
       <c r="M19">
-        <v>1.050808615379729</v>
+        <v>1.078669542750175</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017278219931516</v>
+        <v>1.060345073623347</v>
       </c>
       <c r="D20">
-        <v>1.032490800569355</v>
+        <v>1.058795800543388</v>
       </c>
       <c r="E20">
-        <v>1.029256893865617</v>
+        <v>1.065598344661535</v>
       </c>
       <c r="F20">
-        <v>1.035448437831512</v>
+        <v>1.075064444069987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056620937100281</v>
+        <v>1.054598373215115</v>
       </c>
       <c r="J20">
-        <v>1.044158967608161</v>
+        <v>1.066381630674464</v>
       </c>
       <c r="K20">
-        <v>1.04598542456306</v>
+        <v>1.062091587579083</v>
       </c>
       <c r="L20">
-        <v>1.042804090964082</v>
+        <v>1.068871636241178</v>
       </c>
       <c r="M20">
-        <v>1.048895348825081</v>
+        <v>1.078306950957051</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.009346416977845</v>
+        <v>1.058943912843902</v>
       </c>
       <c r="D21">
-        <v>1.026463903872343</v>
+        <v>1.057720139408693</v>
       </c>
       <c r="E21">
-        <v>1.022414420371536</v>
+        <v>1.064334341685086</v>
       </c>
       <c r="F21">
-        <v>1.028052309269466</v>
+        <v>1.073681983043346</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053166126136903</v>
+        <v>1.054087468556801</v>
       </c>
       <c r="J21">
-        <v>1.038458499952453</v>
+        <v>1.065368697442231</v>
       </c>
       <c r="K21">
-        <v>1.040960675229654</v>
+        <v>1.061221275960037</v>
       </c>
       <c r="L21">
-        <v>1.036983233841203</v>
+        <v>1.067812126793814</v>
       </c>
       <c r="M21">
-        <v>1.042521023110067</v>
+        <v>1.077127306307757</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.004199706658278</v>
+        <v>1.058062417993864</v>
       </c>
       <c r="D22">
-        <v>1.022558820326158</v>
+        <v>1.057043291978457</v>
       </c>
       <c r="E22">
-        <v>1.017982690665949</v>
+        <v>1.063539348153077</v>
       </c>
       <c r="F22">
-        <v>1.023263052179462</v>
+        <v>1.072812734631216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050913976706469</v>
+        <v>1.053764617388112</v>
       </c>
       <c r="J22">
-        <v>1.03475667058477</v>
+        <v>1.064730752749946</v>
       </c>
       <c r="K22">
-        <v>1.037696248793944</v>
+        <v>1.060672875549771</v>
       </c>
       <c r="L22">
-        <v>1.033206130588738</v>
+        <v>1.067145082171478</v>
       </c>
       <c r="M22">
-        <v>1.038387333264451</v>
+        <v>1.07638497487314</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.00694391403646</v>
+        <v>1.058529766268748</v>
       </c>
       <c r="D23">
-        <v>1.0246404298443</v>
+        <v>1.057402152982424</v>
       </c>
       <c r="E23">
-        <v>1.020344870878787</v>
+        <v>1.063960815035653</v>
       </c>
       <c r="F23">
-        <v>1.025815705757502</v>
+        <v>1.073273544243702</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052115770503325</v>
+        <v>1.05393592131768</v>
       </c>
       <c r="J23">
-        <v>1.036730725217909</v>
+        <v>1.065069041685888</v>
       </c>
       <c r="K23">
-        <v>1.039437177007589</v>
+        <v>1.060963707347038</v>
       </c>
       <c r="L23">
-        <v>1.035220049354296</v>
+        <v>1.067498780050007</v>
       </c>
       <c r="M23">
-        <v>1.040591142745471</v>
+        <v>1.076778560360274</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017408641247766</v>
+        <v>1.060368555515566</v>
       </c>
       <c r="D24">
-        <v>1.032589983119699</v>
+        <v>1.058813825163714</v>
       </c>
       <c r="E24">
-        <v>1.029369530031742</v>
+        <v>1.065619531504139</v>
       </c>
       <c r="F24">
-        <v>1.035570206658656</v>
+        <v>1.075087620700129</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056677567241711</v>
+        <v>1.05460691113349</v>
       </c>
       <c r="J24">
-        <v>1.044252645095335</v>
+        <v>1.066398594582165</v>
       </c>
       <c r="K24">
-        <v>1.046067973288783</v>
+        <v>1.062106158228138</v>
       </c>
       <c r="L24">
-        <v>1.042899793890814</v>
+        <v>1.068889384130315</v>
       </c>
       <c r="M24">
-        <v>1.049000194007916</v>
+        <v>1.078326717127224</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.028921965635354</v>
+        <v>1.062500161785686</v>
       </c>
       <c r="D25">
-        <v>1.041355434305444</v>
+        <v>1.060449706932377</v>
       </c>
       <c r="E25">
-        <v>1.039328840985372</v>
+        <v>1.067543295058516</v>
       </c>
       <c r="F25">
-        <v>1.046339867902638</v>
+        <v>1.077192656323184</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061651321330036</v>
+        <v>1.055378518403894</v>
       </c>
       <c r="J25">
-        <v>1.052513709742251</v>
+        <v>1.067936857101576</v>
       </c>
       <c r="K25">
-        <v>1.053343973097361</v>
+        <v>1.063426732263352</v>
       </c>
       <c r="L25">
-        <v>1.051345832456555</v>
+        <v>1.070499295699919</v>
       </c>
       <c r="M25">
-        <v>1.05825901827661</v>
+        <v>1.080120540513131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.064198653302102</v>
+        <v>1.037658900038678</v>
       </c>
       <c r="D2">
-        <v>1.061752694166239</v>
+        <v>1.048018924439022</v>
       </c>
       <c r="E2">
-        <v>1.069076882600384</v>
+        <v>1.046907570061511</v>
       </c>
       <c r="F2">
-        <v>1.078871629810596</v>
+        <v>1.054539685581466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055988313694664</v>
+        <v>1.065387580586781</v>
       </c>
       <c r="J2">
-        <v>1.069160123005274</v>
+        <v>1.058768759433246</v>
       </c>
       <c r="K2">
-        <v>1.06447590068766</v>
+        <v>1.058847485010462</v>
       </c>
       <c r="L2">
-        <v>1.071780355622972</v>
+        <v>1.057749914201821</v>
       </c>
       <c r="M2">
-        <v>1.081549165381923</v>
+        <v>1.065288100090982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.065430994089893</v>
+        <v>1.043770907599695</v>
       </c>
       <c r="D3">
-        <v>1.062697770233633</v>
+        <v>1.052685649086781</v>
       </c>
       <c r="E3">
-        <v>1.070189976582276</v>
+        <v>1.05222014095534</v>
       </c>
       <c r="F3">
-        <v>1.080090757819482</v>
+        <v>1.060290422034579</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056427830243159</v>
+        <v>1.067978373265716</v>
       </c>
       <c r="J3">
-        <v>1.070046242116564</v>
+        <v>1.063135508762618</v>
       </c>
       <c r="K3">
-        <v>1.065235330747638</v>
+        <v>1.062686027414451</v>
       </c>
       <c r="L3">
-        <v>1.072708813494197</v>
+        <v>1.062225765857684</v>
       </c>
       <c r="M3">
-        <v>1.082585280450773</v>
+        <v>1.070205891948582</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.066227995820214</v>
+        <v>1.047626458581197</v>
       </c>
       <c r="D4">
-        <v>1.063308840469845</v>
+        <v>1.055631426941658</v>
       </c>
       <c r="E4">
-        <v>1.07091003792658</v>
+        <v>1.05557598253468</v>
       </c>
       <c r="F4">
-        <v>1.080879649755083</v>
+        <v>1.063924405324727</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056710730055846</v>
+        <v>1.069601783870036</v>
       </c>
       <c r="J4">
-        <v>1.070618669374012</v>
+        <v>1.065885640927507</v>
       </c>
       <c r="K4">
-        <v>1.065725650571289</v>
+        <v>1.065101776167554</v>
       </c>
       <c r="L4">
-        <v>1.073308810367187</v>
+        <v>1.065046917381823</v>
       </c>
       <c r="M4">
-        <v>1.083255176655956</v>
+        <v>1.073308000594452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.066562960649962</v>
+        <v>1.049224640165424</v>
       </c>
       <c r="D5">
-        <v>1.063565626036134</v>
+        <v>1.056852891861761</v>
       </c>
       <c r="E5">
-        <v>1.071212708961712</v>
+        <v>1.056968072146977</v>
       </c>
       <c r="F5">
-        <v>1.081211309921249</v>
+        <v>1.065432211960322</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056829303615877</v>
+        <v>1.070272053093512</v>
       </c>
       <c r="J5">
-        <v>1.070859091538858</v>
+        <v>1.067024491750057</v>
       </c>
       <c r="K5">
-        <v>1.065931523095783</v>
+        <v>1.066101730283454</v>
       </c>
       <c r="L5">
-        <v>1.073560864351585</v>
+        <v>1.066215727668884</v>
       </c>
       <c r="M5">
-        <v>1.083536673403854</v>
+        <v>1.074593792750915</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.066619197232511</v>
+        <v>1.049491681480568</v>
       </c>
       <c r="D6">
-        <v>1.063608735139855</v>
+        <v>1.057057008811419</v>
       </c>
       <c r="E6">
-        <v>1.071263526297082</v>
+        <v>1.057200737269784</v>
       </c>
       <c r="F6">
-        <v>1.081266997758559</v>
+        <v>1.065684237377893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056849191696733</v>
+        <v>1.070383891381667</v>
       </c>
       <c r="J6">
-        <v>1.070899446252187</v>
+        <v>1.067214716156783</v>
       </c>
       <c r="K6">
-        <v>1.065966074906923</v>
+        <v>1.066268729110343</v>
       </c>
       <c r="L6">
-        <v>1.073603174535058</v>
+        <v>1.06641098848959</v>
       </c>
       <c r="M6">
-        <v>1.083583930507927</v>
+        <v>1.074808630782277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.066232472005882</v>
+        <v>1.047647901341028</v>
       </c>
       <c r="D7">
-        <v>1.063312272075578</v>
+        <v>1.055647813817984</v>
       </c>
       <c r="E7">
-        <v>1.070914082397871</v>
+        <v>1.055594656104262</v>
       </c>
       <c r="F7">
-        <v>1.08088408137303</v>
+        <v>1.063944629785291</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05671231584536</v>
+        <v>1.069610787418925</v>
       </c>
       <c r="J7">
-        <v>1.070621882793982</v>
+        <v>1.065900925337963</v>
       </c>
       <c r="K7">
-        <v>1.065728402462085</v>
+        <v>1.065115198159314</v>
       </c>
       <c r="L7">
-        <v>1.073312179048834</v>
+        <v>1.065062601705308</v>
       </c>
       <c r="M7">
-        <v>1.083258938528792</v>
+        <v>1.073325252400733</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.064615213917317</v>
+        <v>1.0397457257044</v>
       </c>
       <c r="D8">
-        <v>1.062072182364863</v>
+        <v>1.049611837549159</v>
       </c>
       <c r="E8">
-        <v>1.069453097115555</v>
+        <v>1.048720443034026</v>
       </c>
       <c r="F8">
-        <v>1.079283633699152</v>
+        <v>1.056501799156291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056137160777981</v>
+        <v>1.066274423639651</v>
       </c>
       <c r="J8">
-        <v>1.069459788893503</v>
+        <v>1.060260616641858</v>
       </c>
       <c r="K8">
-        <v>1.064732778404908</v>
+        <v>1.060159241043307</v>
       </c>
       <c r="L8">
-        <v>1.072094294141568</v>
+        <v>1.059278556459989</v>
       </c>
       <c r="M8">
-        <v>1.081899437965073</v>
+        <v>1.066967176330645</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.06176219230467</v>
+        <v>1.025007455103812</v>
       </c>
       <c r="D9">
-        <v>1.059883435266897</v>
+        <v>1.038373089218923</v>
       </c>
       <c r="E9">
-        <v>1.066877170374092</v>
+        <v>1.035939144294421</v>
       </c>
       <c r="F9">
-        <v>1.076463628233203</v>
+        <v>1.04267369401727</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055112163930701</v>
+        <v>1.059966169677675</v>
       </c>
       <c r="J9">
-        <v>1.067404682556591</v>
+        <v>1.049707022507358</v>
       </c>
       <c r="K9">
-        <v>1.062970021233544</v>
+        <v>1.050872824128075</v>
       </c>
       <c r="L9">
-        <v>1.069942206946031</v>
+        <v>1.048474854217123</v>
       </c>
       <c r="M9">
-        <v>1.079499622537262</v>
+        <v>1.055110384544908</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.059857875839255</v>
+        <v>1.01455389380813</v>
       </c>
       <c r="D10">
-        <v>1.058421812081613</v>
+        <v>1.030419614393363</v>
       </c>
       <c r="E10">
-        <v>1.06515879068591</v>
+        <v>1.026905009402843</v>
       </c>
       <c r="F10">
-        <v>1.074583640562616</v>
+        <v>1.032906005229403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054421048199815</v>
+        <v>1.055436660097857</v>
       </c>
       <c r="J10">
-        <v>1.066029578861576</v>
+        <v>1.042201744438999</v>
       </c>
       <c r="K10">
-        <v>1.061789167546999</v>
+        <v>1.044260527913741</v>
       </c>
       <c r="L10">
-        <v>1.068503344111922</v>
+        <v>1.040804903111717</v>
       </c>
       <c r="M10">
-        <v>1.077896820993713</v>
+        <v>1.046705505640423</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.059032706522831</v>
+        <v>1.009857991866567</v>
       </c>
       <c r="D11">
-        <v>1.057788313359612</v>
+        <v>1.026852309558254</v>
       </c>
       <c r="E11">
-        <v>1.064414431103091</v>
+        <v>1.022855278930813</v>
       </c>
       <c r="F11">
-        <v>1.073769563612397</v>
+        <v>1.028528776448355</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054119928966758</v>
+        <v>1.053389558721975</v>
       </c>
       <c r="J11">
-        <v>1.065432928899487</v>
+        <v>1.038826340485893</v>
       </c>
       <c r="K11">
-        <v>1.061276479869945</v>
+        <v>1.04128499586455</v>
       </c>
       <c r="L11">
-        <v>1.067879298075045</v>
+        <v>1.037358676554264</v>
       </c>
       <c r="M11">
-        <v>1.077202073679487</v>
+        <v>1.042932016411416</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.058726110640815</v>
+        <v>1.008086319925201</v>
       </c>
       <c r="D12">
-        <v>1.057552911116605</v>
+        <v>1.025507381473337</v>
       </c>
       <c r="E12">
-        <v>1.064137897236373</v>
+        <v>1.021328780451936</v>
       </c>
       <c r="F12">
-        <v>1.07346717241756</v>
+        <v>1.026879015131652</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054007799083726</v>
+        <v>1.052615435366528</v>
       </c>
       <c r="J12">
-        <v>1.065211121181614</v>
+        <v>1.037552351589203</v>
       </c>
       <c r="K12">
-        <v>1.061085837401708</v>
+        <v>1.040161689960875</v>
       </c>
       <c r="L12">
-        <v>1.067647346103436</v>
+        <v>1.036058453450297</v>
       </c>
       <c r="M12">
-        <v>1.076943902803432</v>
+        <v>1.041508758713598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.058791880675441</v>
+        <v>1.008467623155178</v>
       </c>
       <c r="D13">
-        <v>1.057603409912322</v>
+        <v>1.025796795223488</v>
       </c>
       <c r="E13">
-        <v>1.064197216784531</v>
+        <v>1.021657252599679</v>
       </c>
       <c r="F13">
-        <v>1.073532036698313</v>
+        <v>1.027234002966478</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054031864048638</v>
+        <v>1.052782123724153</v>
       </c>
       <c r="J13">
-        <v>1.065258708108628</v>
+        <v>1.037826564365088</v>
       </c>
       <c r="K13">
-        <v>1.06112674027062</v>
+        <v>1.040403480404198</v>
       </c>
       <c r="L13">
-        <v>1.067697107565047</v>
+        <v>1.036338290265952</v>
       </c>
       <c r="M13">
-        <v>1.076999286379454</v>
+        <v>1.041815055611928</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.059007365090337</v>
+        <v>1.009712115932096</v>
       </c>
       <c r="D14">
-        <v>1.057768856834886</v>
+        <v>1.026741550946994</v>
       </c>
       <c r="E14">
-        <v>1.064391573668882</v>
+        <v>1.022729561344966</v>
       </c>
       <c r="F14">
-        <v>1.073744568013185</v>
+        <v>1.028392903690662</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054110666010181</v>
+        <v>1.053325854920942</v>
       </c>
       <c r="J14">
-        <v>1.065414597996645</v>
+        <v>1.038721452791658</v>
       </c>
       <c r="K14">
-        <v>1.061260725544837</v>
+        <v>1.041192518719597</v>
       </c>
       <c r="L14">
-        <v>1.067860127994864</v>
+        <v>1.0372516188515</v>
       </c>
       <c r="M14">
-        <v>1.077180735466388</v>
+        <v>1.042814819433732</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05914011996915</v>
+        <v>1.010475195961183</v>
       </c>
       <c r="D15">
-        <v>1.057870781826546</v>
+        <v>1.027320970759799</v>
       </c>
       <c r="E15">
-        <v>1.064511317259958</v>
+        <v>1.023387249652655</v>
       </c>
       <c r="F15">
-        <v>1.073875514605491</v>
+        <v>1.029103725901227</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054159181258383</v>
+        <v>1.053659018306013</v>
       </c>
       <c r="J15">
-        <v>1.065510622282771</v>
+        <v>1.039270101981719</v>
       </c>
       <c r="K15">
-        <v>1.061343250759683</v>
+        <v>1.041676240770174</v>
       </c>
       <c r="L15">
-        <v>1.067960549866282</v>
+        <v>1.037811639246338</v>
       </c>
       <c r="M15">
-        <v>1.07729251749477</v>
+        <v>1.043427896313809</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.059912626974161</v>
+        <v>1.014861813551639</v>
       </c>
       <c r="D16">
-        <v>1.058463842402173</v>
+        <v>1.030653653967625</v>
       </c>
       <c r="E16">
-        <v>1.065208185100226</v>
+        <v>1.027170744125968</v>
       </c>
       <c r="F16">
-        <v>1.074637667344712</v>
+        <v>1.033193256023491</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054440993175613</v>
+        <v>1.055570641298553</v>
       </c>
       <c r="J16">
-        <v>1.066069150666266</v>
+        <v>1.042423001212619</v>
       </c>
       <c r="K16">
-        <v>1.061823163935975</v>
+        <v>1.044455538745367</v>
       </c>
       <c r="L16">
-        <v>1.0685447385724</v>
+        <v>1.041030870292974</v>
       </c>
       <c r="M16">
-        <v>1.0779429136617</v>
+        <v>1.046952992069215</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.060397040772176</v>
+        <v>1.01756674348799</v>
       </c>
       <c r="D17">
-        <v>1.058835690246593</v>
+        <v>1.032710219907514</v>
       </c>
       <c r="E17">
-        <v>1.065645232855506</v>
+        <v>1.029506077830906</v>
       </c>
       <c r="F17">
-        <v>1.075115736014019</v>
+        <v>1.03571782677402</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.054617267167105</v>
+        <v>1.056746208633626</v>
       </c>
       <c r="J17">
-        <v>1.066419172520121</v>
+        <v>1.044366202325522</v>
       </c>
       <c r="K17">
-        <v>1.062123832829888</v>
+        <v>1.046168038934378</v>
       </c>
       <c r="L17">
-        <v>1.068910913248003</v>
+        <v>1.043015808478617</v>
       </c>
       <c r="M17">
-        <v>1.078350694789242</v>
+        <v>1.04912729308897</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.060679534639767</v>
+        <v>1.019128276319963</v>
       </c>
       <c r="D18">
-        <v>1.059052524414765</v>
+        <v>1.033897970603176</v>
       </c>
       <c r="E18">
-        <v>1.065900127590292</v>
+        <v>1.030855045144324</v>
       </c>
       <c r="F18">
-        <v>1.075394582652771</v>
+        <v>1.037176230751146</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054719905266353</v>
+        <v>1.057423680924348</v>
       </c>
       <c r="J18">
-        <v>1.066623216668643</v>
+        <v>1.045487620912455</v>
       </c>
       <c r="K18">
-        <v>1.062299075808164</v>
+        <v>1.047156155375443</v>
       </c>
       <c r="L18">
-        <v>1.06912439952358</v>
+        <v>1.044161618055847</v>
       </c>
       <c r="M18">
-        <v>1.078588476939238</v>
+        <v>1.050382691660737</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.060775848253016</v>
+        <v>1.019658025685265</v>
       </c>
       <c r="D19">
-        <v>1.059126449404728</v>
+        <v>1.034300998203091</v>
       </c>
       <c r="E19">
-        <v>1.065987035448774</v>
+        <v>1.031312814423405</v>
       </c>
       <c r="F19">
-        <v>1.075489661756233</v>
+        <v>1.037671159140004</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054754871786513</v>
+        <v>1.057653312294514</v>
       </c>
       <c r="J19">
-        <v>1.066692770547775</v>
+        <v>1.045867996054571</v>
       </c>
       <c r="K19">
-        <v>1.062358806775725</v>
+        <v>1.047491287100765</v>
       </c>
       <c r="L19">
-        <v>1.069197176394004</v>
+        <v>1.044550317783905</v>
       </c>
       <c r="M19">
-        <v>1.078669542750175</v>
+        <v>1.050808615379728</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.060345073623347</v>
+        <v>1.017278219931514</v>
       </c>
       <c r="D20">
-        <v>1.058795800543388</v>
+        <v>1.032490800569353</v>
       </c>
       <c r="E20">
-        <v>1.065598344661535</v>
+        <v>1.029256893865615</v>
       </c>
       <c r="F20">
-        <v>1.075064444069987</v>
+        <v>1.03544843783151</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054598373215115</v>
+        <v>1.056620937100279</v>
       </c>
       <c r="J20">
-        <v>1.066381630674464</v>
+        <v>1.044158967608159</v>
       </c>
       <c r="K20">
-        <v>1.062091587579083</v>
+        <v>1.045985424563058</v>
       </c>
       <c r="L20">
-        <v>1.068871636241178</v>
+        <v>1.04280409096408</v>
       </c>
       <c r="M20">
-        <v>1.078306950957051</v>
+        <v>1.048895348825079</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.058943912843902</v>
+        <v>1.009346416977843</v>
       </c>
       <c r="D21">
-        <v>1.057720139408693</v>
+        <v>1.026463903872342</v>
       </c>
       <c r="E21">
-        <v>1.064334341685086</v>
+        <v>1.022414420371535</v>
       </c>
       <c r="F21">
-        <v>1.073681983043346</v>
+        <v>1.028052309269465</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054087468556801</v>
+        <v>1.053166126136902</v>
       </c>
       <c r="J21">
-        <v>1.065368697442231</v>
+        <v>1.038458499952452</v>
       </c>
       <c r="K21">
-        <v>1.061221275960037</v>
+        <v>1.040960675229652</v>
       </c>
       <c r="L21">
-        <v>1.067812126793814</v>
+        <v>1.036983233841202</v>
       </c>
       <c r="M21">
-        <v>1.077127306307757</v>
+        <v>1.042521023110066</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.058062417993864</v>
+        <v>1.004199706658281</v>
       </c>
       <c r="D22">
-        <v>1.057043291978457</v>
+        <v>1.02255882032616</v>
       </c>
       <c r="E22">
-        <v>1.063539348153077</v>
+        <v>1.017982690665951</v>
       </c>
       <c r="F22">
-        <v>1.072812734631216</v>
+        <v>1.023263052179464</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053764617388112</v>
+        <v>1.05091397670647</v>
       </c>
       <c r="J22">
-        <v>1.064730752749946</v>
+        <v>1.034756670584773</v>
       </c>
       <c r="K22">
-        <v>1.060672875549771</v>
+        <v>1.037696248793946</v>
       </c>
       <c r="L22">
-        <v>1.067145082171478</v>
+        <v>1.03320613058874</v>
       </c>
       <c r="M22">
-        <v>1.07638497487314</v>
+        <v>1.038387333264453</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.058529766268748</v>
+        <v>1.006943914036457</v>
       </c>
       <c r="D23">
-        <v>1.057402152982424</v>
+        <v>1.024640429844297</v>
       </c>
       <c r="E23">
-        <v>1.063960815035653</v>
+        <v>1.020344870878783</v>
       </c>
       <c r="F23">
-        <v>1.073273544243702</v>
+        <v>1.025815705757499</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05393592131768</v>
+        <v>1.052115770503323</v>
       </c>
       <c r="J23">
-        <v>1.065069041685888</v>
+        <v>1.036730725217906</v>
       </c>
       <c r="K23">
-        <v>1.060963707347038</v>
+        <v>1.039437177007587</v>
       </c>
       <c r="L23">
-        <v>1.067498780050007</v>
+        <v>1.035220049354293</v>
       </c>
       <c r="M23">
-        <v>1.076778560360274</v>
+        <v>1.040591142745467</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.060368555515566</v>
+        <v>1.017408641247767</v>
       </c>
       <c r="D24">
-        <v>1.058813825163714</v>
+        <v>1.032589983119701</v>
       </c>
       <c r="E24">
-        <v>1.065619531504139</v>
+        <v>1.029369530031744</v>
       </c>
       <c r="F24">
-        <v>1.075087620700129</v>
+        <v>1.035570206658658</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05460691113349</v>
+        <v>1.056677567241712</v>
       </c>
       <c r="J24">
-        <v>1.066398594582165</v>
+        <v>1.044252645095337</v>
       </c>
       <c r="K24">
-        <v>1.062106158228138</v>
+        <v>1.046067973288785</v>
       </c>
       <c r="L24">
-        <v>1.068889384130315</v>
+        <v>1.042899793890816</v>
       </c>
       <c r="M24">
-        <v>1.078326717127224</v>
+        <v>1.049000194007917</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.062500161785686</v>
+        <v>1.028921965635354</v>
       </c>
       <c r="D25">
-        <v>1.060449706932377</v>
+        <v>1.041355434305445</v>
       </c>
       <c r="E25">
-        <v>1.067543295058516</v>
+        <v>1.039328840985372</v>
       </c>
       <c r="F25">
-        <v>1.077192656323184</v>
+        <v>1.046339867902639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055378518403894</v>
+        <v>1.061651321330036</v>
       </c>
       <c r="J25">
-        <v>1.067936857101576</v>
+        <v>1.052513709742251</v>
       </c>
       <c r="K25">
-        <v>1.063426732263352</v>
+        <v>1.053343973097362</v>
       </c>
       <c r="L25">
-        <v>1.070499295699919</v>
+        <v>1.051345832456555</v>
       </c>
       <c r="M25">
-        <v>1.080120540513131</v>
+        <v>1.05825901827661</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037658900038678</v>
+        <v>1.032749640464285</v>
       </c>
       <c r="D2">
-        <v>1.048018924439022</v>
+        <v>1.044347842218592</v>
       </c>
       <c r="E2">
-        <v>1.046907570061511</v>
+        <v>1.041047688817486</v>
       </c>
       <c r="F2">
-        <v>1.054539685581466</v>
+        <v>1.044929172789381</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065387580586781</v>
+        <v>1.06151597132447</v>
       </c>
       <c r="J2">
-        <v>1.058768759433246</v>
+        <v>1.053993070185611</v>
       </c>
       <c r="K2">
-        <v>1.058847485010462</v>
+        <v>1.055222072457377</v>
       </c>
       <c r="L2">
-        <v>1.057749914201821</v>
+        <v>1.051963317150694</v>
       </c>
       <c r="M2">
-        <v>1.065288100090982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.055796144405412</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.052731194340062</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.050116962615708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043770907599695</v>
+        <v>1.037390510117553</v>
       </c>
       <c r="D3">
-        <v>1.052685649086781</v>
+        <v>1.047559737410836</v>
       </c>
       <c r="E3">
-        <v>1.05222014095534</v>
+        <v>1.044816081000056</v>
       </c>
       <c r="F3">
-        <v>1.060290422034579</v>
+        <v>1.048477841836213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067978373265716</v>
+        <v>1.063083715169429</v>
       </c>
       <c r="J3">
-        <v>1.063135508762618</v>
+        <v>1.056911291006742</v>
       </c>
       <c r="K3">
-        <v>1.062686027414451</v>
+        <v>1.05761820504949</v>
       </c>
       <c r="L3">
-        <v>1.062225765857684</v>
+        <v>1.05490593013403</v>
       </c>
       <c r="M3">
-        <v>1.070205891948582</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.058525853578271</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.05489153718165</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.05180856415302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047626458581197</v>
+        <v>1.040331816994212</v>
       </c>
       <c r="D4">
-        <v>1.055631426941658</v>
+        <v>1.049598351818315</v>
       </c>
       <c r="E4">
-        <v>1.05557598253468</v>
+        <v>1.047209510330699</v>
       </c>
       <c r="F4">
-        <v>1.063924405324727</v>
+        <v>1.050735360493487</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.069601783870036</v>
+        <v>1.064067029234401</v>
       </c>
       <c r="J4">
-        <v>1.065885640927507</v>
+        <v>1.058757220909288</v>
       </c>
       <c r="K4">
-        <v>1.065101776167554</v>
+        <v>1.059132868761263</v>
       </c>
       <c r="L4">
-        <v>1.065046917381823</v>
+        <v>1.056769685385326</v>
       </c>
       <c r="M4">
-        <v>1.073308000594452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.060257715221634</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.056262161654477</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.052880409276739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049224640165424</v>
+        <v>1.04156052519924</v>
       </c>
       <c r="D5">
-        <v>1.056852891861761</v>
+        <v>1.050453332450402</v>
       </c>
       <c r="E5">
-        <v>1.056968072146977</v>
+        <v>1.048211891045813</v>
       </c>
       <c r="F5">
-        <v>1.065432211960322</v>
+        <v>1.051680464268814</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.070272053093512</v>
+        <v>1.064477455956538</v>
       </c>
       <c r="J5">
-        <v>1.067024491750057</v>
+        <v>1.059529697716219</v>
       </c>
       <c r="K5">
-        <v>1.066101730283454</v>
+        <v>1.059768391960397</v>
       </c>
       <c r="L5">
-        <v>1.066215727668884</v>
+        <v>1.057550378057083</v>
       </c>
       <c r="M5">
-        <v>1.074593792750915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.060982749471957</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.056835965239489</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.053336807617651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049491681480568</v>
+        <v>1.041773833573171</v>
       </c>
       <c r="D6">
-        <v>1.057057008811419</v>
+        <v>1.050605067489637</v>
       </c>
       <c r="E6">
-        <v>1.057200737269784</v>
+        <v>1.048387632939873</v>
       </c>
       <c r="F6">
-        <v>1.065684237377893</v>
+        <v>1.051844723372021</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.070383891381667</v>
+        <v>1.064551197167513</v>
       </c>
       <c r="J6">
-        <v>1.067214716156783</v>
+        <v>1.059666482660508</v>
       </c>
       <c r="K6">
-        <v>1.066268729110343</v>
+        <v>1.059883239723779</v>
       </c>
       <c r="L6">
-        <v>1.06641098848959</v>
+        <v>1.057688874325087</v>
       </c>
       <c r="M6">
-        <v>1.074808630782277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.061110050536011</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.056936713272642</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.053426601645181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047647901341028</v>
+        <v>1.04036948948456</v>
       </c>
       <c r="D7">
-        <v>1.055647813817984</v>
+        <v>1.049633355898533</v>
       </c>
       <c r="E7">
-        <v>1.055594656104262</v>
+        <v>1.047244787058262</v>
       </c>
       <c r="F7">
-        <v>1.063944629785291</v>
+        <v>1.050764557422149</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.069610787418925</v>
+        <v>1.064086734651722</v>
       </c>
       <c r="J7">
-        <v>1.065900925337963</v>
+        <v>1.058788292726145</v>
       </c>
       <c r="K7">
-        <v>1.065115198159314</v>
+        <v>1.059164684915204</v>
       </c>
       <c r="L7">
-        <v>1.065062601705308</v>
+        <v>1.056801760638802</v>
       </c>
       <c r="M7">
-        <v>1.073325252400733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.060283791260122</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.056282798651667</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.052922667608173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0397457257044</v>
+        <v>1.034358303198754</v>
       </c>
       <c r="D8">
-        <v>1.049611837549159</v>
+        <v>1.045471630568376</v>
       </c>
       <c r="E8">
-        <v>1.048720443034026</v>
+        <v>1.042359014522255</v>
       </c>
       <c r="F8">
-        <v>1.056501799156291</v>
+        <v>1.046158014842295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.066274423639651</v>
+        <v>1.062070400736943</v>
       </c>
       <c r="J8">
-        <v>1.060260616641858</v>
+        <v>1.05501471225247</v>
       </c>
       <c r="K8">
-        <v>1.060159241043307</v>
+        <v>1.056068969829506</v>
       </c>
       <c r="L8">
-        <v>1.059278556459989</v>
+        <v>1.052994220285243</v>
       </c>
       <c r="M8">
-        <v>1.066967176330645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.056747041560884</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.053483752816216</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.050738316781655</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.025007455103812</v>
+        <v>1.023233964551032</v>
       </c>
       <c r="D9">
-        <v>1.038373089218923</v>
+        <v>1.037781462173939</v>
       </c>
       <c r="E9">
-        <v>1.035939144294421</v>
+        <v>1.033351950913901</v>
       </c>
       <c r="F9">
-        <v>1.04267369401727</v>
+        <v>1.037701832622809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059966169677675</v>
+        <v>1.058247137367603</v>
       </c>
       <c r="J9">
-        <v>1.049707022507358</v>
+        <v>1.047992130254684</v>
       </c>
       <c r="K9">
-        <v>1.050872824128075</v>
+        <v>1.050289921928586</v>
       </c>
       <c r="L9">
-        <v>1.048474854217123</v>
+        <v>1.045926137265701</v>
       </c>
       <c r="M9">
-        <v>1.055110384544908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.050211467655763</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.048311357462115</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046649120605819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01455389380813</v>
+        <v>1.015592394997838</v>
       </c>
       <c r="D10">
-        <v>1.030419614393363</v>
+        <v>1.032539637925067</v>
       </c>
       <c r="E10">
-        <v>1.026905009402843</v>
+        <v>1.027258557040443</v>
       </c>
       <c r="F10">
-        <v>1.032906005229403</v>
+        <v>1.032039180107699</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055436660097857</v>
+        <v>1.05560076634847</v>
       </c>
       <c r="J10">
-        <v>1.042201744438999</v>
+        <v>1.043200748151707</v>
       </c>
       <c r="K10">
-        <v>1.044260527913741</v>
+        <v>1.046345224383458</v>
       </c>
       <c r="L10">
-        <v>1.040804903111717</v>
+        <v>1.041152494158915</v>
       </c>
       <c r="M10">
-        <v>1.046705505640423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.045853089101401</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044913061724155</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043876635842306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.009857991866567</v>
+        <v>1.013341109220909</v>
       </c>
       <c r="D11">
-        <v>1.026852309558254</v>
+        <v>1.031152083810703</v>
       </c>
       <c r="E11">
-        <v>1.022855278930813</v>
+        <v>1.025971307653254</v>
       </c>
       <c r="F11">
-        <v>1.028528776448355</v>
+        <v>1.031159932984679</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053389558721975</v>
+        <v>1.055051508532956</v>
       </c>
       <c r="J11">
-        <v>1.038826340485893</v>
+        <v>1.042169224859287</v>
       </c>
       <c r="K11">
-        <v>1.04128499586455</v>
+        <v>1.045509495383008</v>
       </c>
       <c r="L11">
-        <v>1.037358676554264</v>
+        <v>1.040419518353715</v>
       </c>
       <c r="M11">
-        <v>1.042932016411416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.045517207887268</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045080161089125</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043318228183721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.008086319925201</v>
+        <v>1.012913505710789</v>
       </c>
       <c r="D12">
-        <v>1.025507381473337</v>
+        <v>1.030967281052782</v>
       </c>
       <c r="E12">
-        <v>1.021328780451936</v>
+        <v>1.026004131246295</v>
       </c>
       <c r="F12">
-        <v>1.026879015131652</v>
+        <v>1.031419853624631</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052615435366528</v>
+        <v>1.05507370000635</v>
       </c>
       <c r="J12">
-        <v>1.037552351589203</v>
+        <v>1.042181222482964</v>
       </c>
       <c r="K12">
-        <v>1.040161689960875</v>
+        <v>1.045524309875069</v>
       </c>
       <c r="L12">
-        <v>1.036058453450297</v>
+        <v>1.040649533473037</v>
       </c>
       <c r="M12">
-        <v>1.041508758713598</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.04596887885565</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045761469253689</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043328702291132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.008467623155178</v>
+        <v>1.01388862615701</v>
       </c>
       <c r="D13">
-        <v>1.025796795223488</v>
+        <v>1.031724205592151</v>
       </c>
       <c r="E13">
-        <v>1.021657252599679</v>
+        <v>1.027083664750947</v>
       </c>
       <c r="F13">
-        <v>1.027234002966478</v>
+        <v>1.032606654425293</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052782123724153</v>
+        <v>1.055559220233716</v>
       </c>
       <c r="J13">
-        <v>1.037826564365088</v>
+        <v>1.043026090903362</v>
       </c>
       <c r="K13">
-        <v>1.040403480404198</v>
+        <v>1.046225772083233</v>
       </c>
       <c r="L13">
-        <v>1.036338290265952</v>
+        <v>1.041667394311029</v>
       </c>
       <c r="M13">
-        <v>1.041815055611928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.047092705023984</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046924863782239</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04382218459674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.009712115932096</v>
+        <v>1.015200521401976</v>
       </c>
       <c r="D14">
-        <v>1.026741550946994</v>
+        <v>1.032677044283111</v>
       </c>
       <c r="E14">
-        <v>1.022729561344966</v>
+        <v>1.028305312772908</v>
       </c>
       <c r="F14">
-        <v>1.028392903690662</v>
+        <v>1.03384999257645</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053325854920942</v>
+        <v>1.056105915689879</v>
       </c>
       <c r="J14">
-        <v>1.038721452791658</v>
+        <v>1.043989104757094</v>
       </c>
       <c r="K14">
-        <v>1.041192518719597</v>
+        <v>1.047024150410111</v>
       </c>
       <c r="L14">
-        <v>1.0372516188515</v>
+        <v>1.042728766454484</v>
       </c>
       <c r="M14">
-        <v>1.042814819433732</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.048176756576916</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047954039814851</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044388059783741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.010475195961183</v>
+        <v>1.015838443834071</v>
       </c>
       <c r="D15">
-        <v>1.027320970759799</v>
+        <v>1.033127173593967</v>
       </c>
       <c r="E15">
-        <v>1.023387249652655</v>
+        <v>1.028849083175277</v>
       </c>
       <c r="F15">
-        <v>1.029103725901227</v>
+        <v>1.034378406621027</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053659018306013</v>
+        <v>1.056348725033051</v>
       </c>
       <c r="J15">
-        <v>1.039270101981719</v>
+        <v>1.044419656034938</v>
       </c>
       <c r="K15">
-        <v>1.041676240770174</v>
+        <v>1.047381666323512</v>
       </c>
       <c r="L15">
-        <v>1.037811639246338</v>
+        <v>1.043177687207166</v>
       </c>
       <c r="M15">
-        <v>1.043427896313809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.048611373451941</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.048334881818747</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.044646628402989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014861813551639</v>
+        <v>1.018884144087641</v>
       </c>
       <c r="D16">
-        <v>1.030653653967625</v>
+        <v>1.035198404071812</v>
       </c>
       <c r="E16">
-        <v>1.027170744125968</v>
+        <v>1.031219079889419</v>
       </c>
       <c r="F16">
-        <v>1.033193256023491</v>
+        <v>1.036575310452325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055570641298553</v>
+        <v>1.057389255283929</v>
       </c>
       <c r="J16">
-        <v>1.042423001212619</v>
+        <v>1.046293596053751</v>
       </c>
       <c r="K16">
-        <v>1.044455538745367</v>
+        <v>1.048925049439552</v>
       </c>
       <c r="L16">
-        <v>1.041030870292974</v>
+        <v>1.045011557389702</v>
       </c>
       <c r="M16">
-        <v>1.046952992069215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.050279328258649</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.049614767126266</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045740951044454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01756674348799</v>
+        <v>1.020538272079815</v>
       </c>
       <c r="D17">
-        <v>1.032710219907514</v>
+        <v>1.036293352501446</v>
       </c>
       <c r="E17">
-        <v>1.029506077830906</v>
+        <v>1.032403016658175</v>
       </c>
       <c r="F17">
-        <v>1.03571782677402</v>
+        <v>1.037608395905342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056746208633626</v>
+        <v>1.057901007159266</v>
       </c>
       <c r="J17">
-        <v>1.044366202325522</v>
+        <v>1.047229448270719</v>
       </c>
       <c r="K17">
-        <v>1.046168038934378</v>
+        <v>1.049693607218901</v>
       </c>
       <c r="L17">
-        <v>1.043015808478617</v>
+        <v>1.045865794885254</v>
       </c>
       <c r="M17">
-        <v>1.04912729308897</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.050987651800104</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.050046505241867</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046286887795881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019128276319963</v>
+        <v>1.021109844449238</v>
       </c>
       <c r="D18">
-        <v>1.033897970603176</v>
+        <v>1.036609747517557</v>
       </c>
       <c r="E18">
-        <v>1.030855045144324</v>
+        <v>1.032614491606467</v>
       </c>
       <c r="F18">
-        <v>1.037176230751146</v>
+        <v>1.037657296238403</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057423680924348</v>
+        <v>1.057979526408911</v>
       </c>
       <c r="J18">
-        <v>1.045487620912455</v>
+        <v>1.047398403035199</v>
       </c>
       <c r="K18">
-        <v>1.047156155375443</v>
+        <v>1.049825116386949</v>
       </c>
       <c r="L18">
-        <v>1.044161618055847</v>
+        <v>1.045893041513971</v>
       </c>
       <c r="M18">
-        <v>1.050382691660737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.05085620215402</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.049706751995665</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046368385088627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019658025685265</v>
+        <v>1.020727438964378</v>
       </c>
       <c r="D19">
-        <v>1.034300998203091</v>
+        <v>1.036252418377285</v>
       </c>
       <c r="E19">
-        <v>1.031312814423405</v>
+        <v>1.031968804843368</v>
       </c>
       <c r="F19">
-        <v>1.037671159140004</v>
+        <v>1.036825195282158</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057653312294514</v>
+        <v>1.057686209535728</v>
       </c>
       <c r="J19">
-        <v>1.045867996054571</v>
+        <v>1.046899437411688</v>
       </c>
       <c r="K19">
-        <v>1.047491287100765</v>
+        <v>1.049412062074679</v>
       </c>
       <c r="L19">
-        <v>1.044550317783905</v>
+        <v>1.045195913303923</v>
       </c>
       <c r="M19">
-        <v>1.050808615379728</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.049975872067496</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.048687940832493</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046082661983033</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017278219931514</v>
+        <v>1.017640773917478</v>
       </c>
       <c r="D20">
-        <v>1.032490800569353</v>
+        <v>1.033967081905956</v>
       </c>
       <c r="E20">
-        <v>1.029256893865615</v>
+        <v>1.028907578642901</v>
       </c>
       <c r="F20">
-        <v>1.03544843783151</v>
+        <v>1.033561309967377</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056620937100279</v>
+        <v>1.056333153786687</v>
       </c>
       <c r="J20">
-        <v>1.044158967608159</v>
+        <v>1.04450821082029</v>
       </c>
       <c r="K20">
-        <v>1.045985424563058</v>
+        <v>1.04743784654262</v>
       </c>
       <c r="L20">
-        <v>1.04280409096408</v>
+        <v>1.04246047992019</v>
       </c>
       <c r="M20">
-        <v>1.048895348825079</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.0470386238889</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045840812533929</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.044690734073957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.009346416977843</v>
+        <v>1.011659405483744</v>
       </c>
       <c r="D21">
-        <v>1.026463903872342</v>
+        <v>1.029840354438977</v>
       </c>
       <c r="E21">
-        <v>1.022414420371535</v>
+        <v>1.024053544446141</v>
       </c>
       <c r="F21">
-        <v>1.028052309269465</v>
+        <v>1.028996101412874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.053166126136902</v>
+        <v>1.054196297283008</v>
       </c>
       <c r="J21">
-        <v>1.038458499952452</v>
+        <v>1.040677612516388</v>
       </c>
       <c r="K21">
-        <v>1.040960675229652</v>
+        <v>1.044277618522371</v>
       </c>
       <c r="L21">
-        <v>1.036983233841202</v>
+        <v>1.038593108077633</v>
       </c>
       <c r="M21">
-        <v>1.042521023110066</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.04344819732926</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042958720210141</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042459591417136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.004199706658281</v>
+        <v>1.007851650018627</v>
       </c>
       <c r="D22">
-        <v>1.02255882032616</v>
+        <v>1.027217993977583</v>
       </c>
       <c r="E22">
-        <v>1.017982690665951</v>
+        <v>1.02099473158171</v>
       </c>
       <c r="F22">
-        <v>1.023263052179464</v>
+        <v>1.026148790395181</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05091397670647</v>
+        <v>1.052832700554446</v>
       </c>
       <c r="J22">
-        <v>1.034756670584773</v>
+        <v>1.038251053083321</v>
       </c>
       <c r="K22">
-        <v>1.037696248793946</v>
+        <v>1.042268876320639</v>
       </c>
       <c r="L22">
-        <v>1.03320613058874</v>
+        <v>1.036161444908268</v>
       </c>
       <c r="M22">
-        <v>1.038387333264453</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.04121944305374</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041194814481092</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.041025987285763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.006943914036457</v>
+        <v>1.009856723889329</v>
       </c>
       <c r="D23">
-        <v>1.024640429844297</v>
+        <v>1.028589901232668</v>
       </c>
       <c r="E23">
-        <v>1.020344870878783</v>
+        <v>1.02259882890128</v>
       </c>
       <c r="F23">
-        <v>1.025815705757499</v>
+        <v>1.027645800293357</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052115770503323</v>
+        <v>1.053545254157631</v>
       </c>
       <c r="J23">
-        <v>1.036730725217906</v>
+        <v>1.039521846003203</v>
       </c>
       <c r="K23">
-        <v>1.039437177007587</v>
+        <v>1.043315287314914</v>
       </c>
       <c r="L23">
-        <v>1.035220049354293</v>
+        <v>1.037432746085705</v>
       </c>
       <c r="M23">
-        <v>1.040591142745467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.042388180033148</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042119789956919</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041756286201269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017408641247767</v>
+        <v>1.017596066962074</v>
       </c>
       <c r="D24">
-        <v>1.032589983119701</v>
+        <v>1.033909835799781</v>
       </c>
       <c r="E24">
-        <v>1.029369530031744</v>
+        <v>1.028815990137862</v>
       </c>
       <c r="F24">
-        <v>1.035570206658658</v>
+        <v>1.033450191767627</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056677567241712</v>
+        <v>1.056285309738778</v>
       </c>
       <c r="J24">
-        <v>1.044252645095337</v>
+        <v>1.044433200110501</v>
       </c>
       <c r="K24">
-        <v>1.046067973288785</v>
+        <v>1.047366523134032</v>
       </c>
       <c r="L24">
-        <v>1.042899793890816</v>
+        <v>1.042355281289884</v>
       </c>
       <c r="M24">
-        <v>1.049000194007917</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.046914289975233</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045701885672945</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.044613221426254</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028921965635354</v>
+        <v>1.026208383117026</v>
       </c>
       <c r="D25">
-        <v>1.041355434305445</v>
+        <v>1.039848485855215</v>
       </c>
       <c r="E25">
-        <v>1.039328840985372</v>
+        <v>1.035763583295773</v>
       </c>
       <c r="F25">
-        <v>1.046339867902639</v>
+        <v>1.039955547499732</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061651321330036</v>
+        <v>1.059289729123566</v>
       </c>
       <c r="J25">
-        <v>1.052513709742251</v>
+        <v>1.049884814618356</v>
       </c>
       <c r="K25">
-        <v>1.053343973097362</v>
+        <v>1.051858168333716</v>
       </c>
       <c r="L25">
-        <v>1.051345832456555</v>
+        <v>1.047830971504508</v>
       </c>
       <c r="M25">
-        <v>1.05825901827661</v>
+        <v>1.051963725263879</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.049698135761441</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047786136644097</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_46/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032749640464285</v>
+        <v>1.030164914065514</v>
       </c>
       <c r="D2">
-        <v>1.044347842218592</v>
+        <v>1.041105274014202</v>
       </c>
       <c r="E2">
-        <v>1.041047688817486</v>
+        <v>1.039205668937695</v>
       </c>
       <c r="F2">
-        <v>1.044929172789381</v>
+        <v>1.04338892907774</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.06151597132447</v>
+        <v>1.0596367755757</v>
       </c>
       <c r="J2">
-        <v>1.053993070185611</v>
+        <v>1.051479366243824</v>
       </c>
       <c r="K2">
-        <v>1.055222072457377</v>
+        <v>1.052020177175237</v>
       </c>
       <c r="L2">
-        <v>1.051963317150694</v>
+        <v>1.050144546805492</v>
       </c>
       <c r="M2">
-        <v>1.055796144405412</v>
+        <v>1.054275154553869</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052731194340062</v>
+        <v>1.051527451868852</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.050116962615708</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.047861656483812</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025417618105385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037390510117553</v>
+        <v>1.034539538033294</v>
       </c>
       <c r="D3">
-        <v>1.047559737410836</v>
+        <v>1.043998460725022</v>
       </c>
       <c r="E3">
-        <v>1.044816081000056</v>
+        <v>1.042722524427956</v>
       </c>
       <c r="F3">
-        <v>1.048477841836213</v>
+        <v>1.04674384144811</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063083715169429</v>
+        <v>1.061014330249248</v>
       </c>
       <c r="J3">
-        <v>1.056911291006742</v>
+        <v>1.054130944763115</v>
       </c>
       <c r="K3">
-        <v>1.05761820504949</v>
+        <v>1.054097701052921</v>
       </c>
       <c r="L3">
-        <v>1.05490593013403</v>
+        <v>1.052836456514036</v>
       </c>
       <c r="M3">
-        <v>1.058525853578271</v>
+        <v>1.056811619966277</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.05489153718165</v>
+        <v>1.05353486139321</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.05180856415302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.049327703689871</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025908175057565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040331816994212</v>
+        <v>1.037314649129094</v>
       </c>
       <c r="D4">
-        <v>1.049598351818315</v>
+        <v>1.045836996223773</v>
       </c>
       <c r="E4">
-        <v>1.047209510330699</v>
+        <v>1.044959243541284</v>
       </c>
       <c r="F4">
-        <v>1.050735360493487</v>
+        <v>1.048880661049083</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.064067029234401</v>
+        <v>1.061878123313136</v>
       </c>
       <c r="J4">
-        <v>1.058757220909288</v>
+        <v>1.055809718921511</v>
       </c>
       <c r="K4">
-        <v>1.059132868761263</v>
+        <v>1.055411978209063</v>
       </c>
       <c r="L4">
-        <v>1.056769685385326</v>
+        <v>1.054543719890028</v>
       </c>
       <c r="M4">
-        <v>1.060257715221634</v>
+        <v>1.058422871529888</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056262161654477</v>
+        <v>1.054810035376305</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.052880409276739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.050257947283096</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026216076762671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04156052519924</v>
+        <v>1.038473873850127</v>
       </c>
       <c r="D5">
-        <v>1.050453332450402</v>
+        <v>1.046608359904506</v>
       </c>
       <c r="E5">
-        <v>1.048211891045813</v>
+        <v>1.045895855851311</v>
       </c>
       <c r="F5">
-        <v>1.051680464268814</v>
+        <v>1.049775166981326</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064477455956538</v>
+        <v>1.062238519486986</v>
       </c>
       <c r="J5">
-        <v>1.059529697716219</v>
+        <v>1.056512179949375</v>
       </c>
       <c r="K5">
-        <v>1.059768391960397</v>
+        <v>1.055963682258469</v>
       </c>
       <c r="L5">
-        <v>1.057550378057083</v>
+        <v>1.055258678980919</v>
       </c>
       <c r="M5">
-        <v>1.060982749471957</v>
+        <v>1.059097301769638</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056835965239489</v>
+        <v>1.055343791177627</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.053336807617651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.050655799245856</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026346131451445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041773833573171</v>
+        <v>1.038674378821996</v>
       </c>
       <c r="D6">
-        <v>1.050605067489637</v>
+        <v>1.046745022755683</v>
       </c>
       <c r="E6">
-        <v>1.048387632939873</v>
+        <v>1.04605907837336</v>
       </c>
       <c r="F6">
-        <v>1.051844723372021</v>
+        <v>1.049929863130649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064551197167513</v>
+        <v>1.062303180143942</v>
       </c>
       <c r="J6">
-        <v>1.059666482660508</v>
+        <v>1.056636089510316</v>
       </c>
       <c r="K6">
-        <v>1.059883239723779</v>
+        <v>1.056063430083647</v>
       </c>
       <c r="L6">
-        <v>1.057688874325087</v>
+        <v>1.055384673598785</v>
       </c>
       <c r="M6">
-        <v>1.061110050536011</v>
+        <v>1.059215047277254</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056936713272642</v>
+        <v>1.055436976978243</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.053426601645181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.050735794538727</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026371302993496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04036948948456</v>
+        <v>1.037348024365989</v>
       </c>
       <c r="D7">
-        <v>1.049633355898533</v>
+        <v>1.045867803910745</v>
       </c>
       <c r="E7">
-        <v>1.047244787058262</v>
+        <v>1.044989330663914</v>
       </c>
       <c r="F7">
-        <v>1.050764557422149</v>
+        <v>1.048906055006662</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064086734651722</v>
+        <v>1.061895150105772</v>
       </c>
       <c r="J7">
-        <v>1.058788292726145</v>
+        <v>1.05583656107592</v>
       </c>
       <c r="K7">
-        <v>1.059164684915204</v>
+        <v>1.055439626553691</v>
       </c>
       <c r="L7">
-        <v>1.056801760638802</v>
+        <v>1.054570651630484</v>
       </c>
       <c r="M7">
-        <v>1.060283791260122</v>
+        <v>1.058445177444246</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056282798651667</v>
+        <v>1.054827688670204</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.052922667608173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.050299277700686</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026227203505676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034358303198754</v>
+        <v>1.031677673734373</v>
       </c>
       <c r="D8">
-        <v>1.045471630568376</v>
+        <v>1.042115848505152</v>
       </c>
       <c r="E8">
-        <v>1.042359014522255</v>
+        <v>1.040424791262933</v>
       </c>
       <c r="F8">
-        <v>1.046158014842295</v>
+        <v>1.044547005744358</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062070400736943</v>
+        <v>1.06012343384147</v>
       </c>
       <c r="J8">
-        <v>1.05501471225247</v>
+        <v>1.052405246349225</v>
       </c>
       <c r="K8">
-        <v>1.056068969829506</v>
+        <v>1.052754024344484</v>
       </c>
       <c r="L8">
-        <v>1.052994220285243</v>
+        <v>1.051083669757667</v>
       </c>
       <c r="M8">
-        <v>1.056747041560884</v>
+        <v>1.055155564246174</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053483752816216</v>
+        <v>1.052224226337735</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.050738316781655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.048405365363102</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025597387478451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023233964551032</v>
+        <v>1.021210253554739</v>
       </c>
       <c r="D9">
-        <v>1.037781462173939</v>
+        <v>1.035203389097933</v>
       </c>
       <c r="E9">
-        <v>1.033351950913901</v>
+        <v>1.032040848397735</v>
       </c>
       <c r="F9">
-        <v>1.037701832622809</v>
+        <v>1.036570819389139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.058247137367603</v>
+        <v>1.056763749983166</v>
       </c>
       <c r="J9">
-        <v>1.047992130254684</v>
+        <v>1.046035631079848</v>
       </c>
       <c r="K9">
-        <v>1.050289921928586</v>
+        <v>1.047750016205892</v>
       </c>
       <c r="L9">
-        <v>1.045926137265701</v>
+        <v>1.044634627016835</v>
       </c>
       <c r="M9">
-        <v>1.050211467655763</v>
+        <v>1.049097172186616</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.048311357462115</v>
+        <v>1.04742947620736</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046649120605819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044863881088665</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024396892935963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015592394997838</v>
+        <v>1.014022122724748</v>
       </c>
       <c r="D10">
-        <v>1.032539637925067</v>
+        <v>1.030494855452548</v>
       </c>
       <c r="E10">
-        <v>1.027258557040443</v>
+        <v>1.026371148470253</v>
       </c>
       <c r="F10">
-        <v>1.032039180107699</v>
+        <v>1.031236338807397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05560076634847</v>
+        <v>1.054433929414104</v>
       </c>
       <c r="J10">
-        <v>1.043200748151707</v>
+        <v>1.041690242464523</v>
       </c>
       <c r="K10">
-        <v>1.046345224383458</v>
+        <v>1.044334511986149</v>
       </c>
       <c r="L10">
-        <v>1.041152494158915</v>
+        <v>1.040280046730393</v>
       </c>
       <c r="M10">
-        <v>1.045853089101401</v>
+        <v>1.045063620663508</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044913061724155</v>
+        <v>1.044288292294329</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043876635842306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04246725738112</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023583734894922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.013341109220909</v>
+        <v>1.011787158464817</v>
       </c>
       <c r="D11">
-        <v>1.031152083810703</v>
+        <v>1.02916079094637</v>
       </c>
       <c r="E11">
-        <v>1.025971307653254</v>
+        <v>1.025042696494114</v>
       </c>
       <c r="F11">
-        <v>1.031159932984679</v>
+        <v>1.030337235911603</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.055051508532956</v>
+        <v>1.053910848975563</v>
       </c>
       <c r="J11">
-        <v>1.042169224859287</v>
+        <v>1.040677668227087</v>
       </c>
       <c r="K11">
-        <v>1.045509495383008</v>
+        <v>1.043552962132043</v>
       </c>
       <c r="L11">
-        <v>1.040419518353715</v>
+        <v>1.039507307991996</v>
       </c>
       <c r="M11">
-        <v>1.045517207887268</v>
+        <v>1.044708850275683</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045080161089125</v>
+        <v>1.044440760219263</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043318228183721</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041950393738718</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023539527190767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012913505710789</v>
+        <v>1.011296914235983</v>
       </c>
       <c r="D12">
-        <v>1.030967281052782</v>
+        <v>1.028928056680217</v>
       </c>
       <c r="E12">
-        <v>1.026004131246295</v>
+        <v>1.024974318943267</v>
       </c>
       <c r="F12">
-        <v>1.031419853624631</v>
+        <v>1.03052795784029</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.05507370000635</v>
+        <v>1.053900691483531</v>
       </c>
       <c r="J12">
-        <v>1.042181222482964</v>
+        <v>1.040630745849895</v>
       </c>
       <c r="K12">
-        <v>1.045524309875069</v>
+        <v>1.043521261835274</v>
       </c>
       <c r="L12">
-        <v>1.040649533473037</v>
+        <v>1.039638197222195</v>
       </c>
       <c r="M12">
-        <v>1.04596887885565</v>
+        <v>1.045092764666206</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045761469253689</v>
+        <v>1.045068705128775</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043328702291132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041927981453408</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023636871484846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01388862615701</v>
+        <v>1.012140479305546</v>
       </c>
       <c r="D13">
-        <v>1.031724205592151</v>
+        <v>1.029552037057524</v>
       </c>
       <c r="E13">
-        <v>1.027083664750947</v>
+        <v>1.025895212560965</v>
       </c>
       <c r="F13">
-        <v>1.032606654425293</v>
+        <v>1.031599701627231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055559220233716</v>
+        <v>1.054304267887366</v>
       </c>
       <c r="J13">
-        <v>1.043026090903362</v>
+        <v>1.041348997166345</v>
       </c>
       <c r="K13">
-        <v>1.046225772083233</v>
+        <v>1.044091943263968</v>
       </c>
       <c r="L13">
-        <v>1.041667394311029</v>
+        <v>1.040500139498599</v>
       </c>
       <c r="M13">
-        <v>1.047092705023984</v>
+        <v>1.046103460012582</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046924863782239</v>
+        <v>1.046142838388806</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04382218459674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042328748134282</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02386333634786</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015200521401976</v>
+        <v>1.013331192335247</v>
       </c>
       <c r="D14">
-        <v>1.032677044283111</v>
+        <v>1.030375151133346</v>
       </c>
       <c r="E14">
-        <v>1.028305312772908</v>
+        <v>1.02698232345647</v>
       </c>
       <c r="F14">
-        <v>1.03384999257645</v>
+        <v>1.0327435963751</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.056105915689879</v>
+        <v>1.054772283939269</v>
       </c>
       <c r="J14">
-        <v>1.043989104757094</v>
+        <v>1.042194582865762</v>
       </c>
       <c r="K14">
-        <v>1.047024150410111</v>
+        <v>1.044762352740225</v>
       </c>
       <c r="L14">
-        <v>1.042728766454484</v>
+        <v>1.041429047807577</v>
       </c>
       <c r="M14">
-        <v>1.048176756576916</v>
+        <v>1.0470895467067</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047954039814851</v>
+        <v>1.047094685036648</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044388059783741</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042804279014199</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024079505099221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015838443834071</v>
+        <v>1.013922547020334</v>
       </c>
       <c r="D15">
-        <v>1.033127173593967</v>
+        <v>1.030773119689782</v>
       </c>
       <c r="E15">
-        <v>1.028849083175277</v>
+        <v>1.027478312397373</v>
       </c>
       <c r="F15">
-        <v>1.034378406621027</v>
+        <v>1.033235996649048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.056348725033051</v>
+        <v>1.05498381530551</v>
       </c>
       <c r="J15">
-        <v>1.044419656034938</v>
+        <v>1.042579728882894</v>
       </c>
       <c r="K15">
-        <v>1.047381666323512</v>
+        <v>1.045068294264313</v>
       </c>
       <c r="L15">
-        <v>1.043177687207166</v>
+        <v>1.041830832008827</v>
       </c>
       <c r="M15">
-        <v>1.048611373451941</v>
+        <v>1.04748861453745</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.048334881818747</v>
+        <v>1.047447451317286</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.044646628402989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043026956360804</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024165281317188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018884144087641</v>
+        <v>1.016805113195907</v>
       </c>
       <c r="D16">
-        <v>1.035198404071812</v>
+        <v>1.032646967639005</v>
       </c>
       <c r="E16">
-        <v>1.031219079889419</v>
+        <v>1.029705324947455</v>
       </c>
       <c r="F16">
-        <v>1.036575310452325</v>
+        <v>1.035320517289233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.057389255283929</v>
+        <v>1.055908129925055</v>
       </c>
       <c r="J16">
-        <v>1.046293596053751</v>
+        <v>1.044292781951417</v>
       </c>
       <c r="K16">
-        <v>1.048925049439552</v>
+        <v>1.046415747679536</v>
       </c>
       <c r="L16">
-        <v>1.045011557389702</v>
+        <v>1.043523017438933</v>
       </c>
       <c r="M16">
-        <v>1.050279328258649</v>
+        <v>1.049045152765796</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.049614767126266</v>
+        <v>1.048639244681737</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045740951044454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043983050450413</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024472607284812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020538272079815</v>
+        <v>1.018396067352302</v>
       </c>
       <c r="D17">
-        <v>1.036293352501446</v>
+        <v>1.033657150707304</v>
       </c>
       <c r="E17">
-        <v>1.032403016658175</v>
+        <v>1.030847882653009</v>
       </c>
       <c r="F17">
-        <v>1.037608395905342</v>
+        <v>1.036317898603767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.057901007159266</v>
+        <v>1.056371046719743</v>
       </c>
       <c r="J17">
-        <v>1.047229448270719</v>
+        <v>1.045165216318604</v>
       </c>
       <c r="K17">
-        <v>1.049693607218901</v>
+        <v>1.047099707171338</v>
       </c>
       <c r="L17">
-        <v>1.045865794885254</v>
+        <v>1.044335823738586</v>
       </c>
       <c r="M17">
-        <v>1.050987651800104</v>
+        <v>1.049717760739373</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.050046505241867</v>
+        <v>1.049042653276609</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046286887795881</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.044469422359669</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02459536160821</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021109844449238</v>
+        <v>1.01899202527047</v>
       </c>
       <c r="D18">
-        <v>1.036609747517557</v>
+        <v>1.033985147524846</v>
       </c>
       <c r="E18">
-        <v>1.032614491606467</v>
+        <v>1.031111160677264</v>
       </c>
       <c r="F18">
-        <v>1.037657296238403</v>
+        <v>1.036400559476734</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.057979526408911</v>
+        <v>1.056458920631298</v>
       </c>
       <c r="J18">
-        <v>1.047398403035199</v>
+        <v>1.045356251231608</v>
       </c>
       <c r="K18">
-        <v>1.049825116386949</v>
+        <v>1.047241951397364</v>
       </c>
       <c r="L18">
-        <v>1.045893041513971</v>
+        <v>1.044413646770251</v>
       </c>
       <c r="M18">
-        <v>1.05085620215402</v>
+        <v>1.049619220982847</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.049706751995665</v>
+        <v>1.048728714497164</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046368385088627</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044557364409404</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024554962508734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020727438964378</v>
+        <v>1.018708571475711</v>
       </c>
       <c r="D19">
-        <v>1.036252418377285</v>
+        <v>1.033722486153373</v>
       </c>
       <c r="E19">
-        <v>1.031968804843368</v>
+        <v>1.03059503079815</v>
       </c>
       <c r="F19">
-        <v>1.036825195282158</v>
+        <v>1.035660436124331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.057686209535728</v>
+        <v>1.056225001895918</v>
       </c>
       <c r="J19">
-        <v>1.046899437411688</v>
+        <v>1.044952347954419</v>
       </c>
       <c r="K19">
-        <v>1.049412062074679</v>
+        <v>1.04692188849261</v>
       </c>
       <c r="L19">
-        <v>1.045195913303923</v>
+        <v>1.043843927664568</v>
       </c>
       <c r="M19">
-        <v>1.049975872067496</v>
+        <v>1.048829360729949</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.048687940832493</v>
+        <v>1.047781143352479</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046082661983033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.044338019430167</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02438165366245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017640773917478</v>
+        <v>1.015938887360077</v>
       </c>
       <c r="D20">
-        <v>1.033967081905956</v>
+        <v>1.031771590023452</v>
       </c>
       <c r="E20">
-        <v>1.028907578642901</v>
+        <v>1.027893038659185</v>
       </c>
       <c r="F20">
-        <v>1.033561309967377</v>
+        <v>1.032660722015952</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056333153786687</v>
+        <v>1.055076263160865</v>
       </c>
       <c r="J20">
-        <v>1.04450821082029</v>
+        <v>1.04286892296758</v>
       </c>
       <c r="K20">
-        <v>1.04743784654262</v>
+        <v>1.045277869513262</v>
       </c>
       <c r="L20">
-        <v>1.04246047992019</v>
+        <v>1.041462535231134</v>
       </c>
       <c r="M20">
-        <v>1.0470386238889</v>
+        <v>1.046152595313791</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045840812533929</v>
+        <v>1.04513961933088</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.044690734073957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043179946040325</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023823235489992</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011659405483744</v>
+        <v>1.010342217779822</v>
       </c>
       <c r="D21">
-        <v>1.029840354438977</v>
+        <v>1.028087103988399</v>
       </c>
       <c r="E21">
-        <v>1.024053544446141</v>
+        <v>1.023409043895973</v>
       </c>
       <c r="F21">
-        <v>1.028996101412874</v>
+        <v>1.028380046730611</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054196297283008</v>
+        <v>1.05320275968582</v>
       </c>
       <c r="J21">
-        <v>1.040677612516388</v>
+        <v>1.039413809984052</v>
       </c>
       <c r="K21">
-        <v>1.044277618522371</v>
+        <v>1.042555204474857</v>
       </c>
       <c r="L21">
-        <v>1.038593108077633</v>
+        <v>1.037960093998354</v>
       </c>
       <c r="M21">
-        <v>1.04344819732926</v>
+        <v>1.04284298541619</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042958720210141</v>
+        <v>1.042479737027977</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042459591417136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041258511643123</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023142165593393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007851650018627</v>
+        <v>1.006781030609256</v>
       </c>
       <c r="D22">
-        <v>1.027217993977583</v>
+        <v>1.025746357954962</v>
       </c>
       <c r="E22">
-        <v>1.02099473158171</v>
+        <v>1.020585742241566</v>
       </c>
       <c r="F22">
-        <v>1.026148790395181</v>
+        <v>1.025714364638187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.052832700554446</v>
+        <v>1.052006701059575</v>
       </c>
       <c r="J22">
-        <v>1.038251053083321</v>
+        <v>1.037226455898821</v>
       </c>
       <c r="K22">
-        <v>1.042268876320639</v>
+        <v>1.040824465789681</v>
       </c>
       <c r="L22">
-        <v>1.036161444908268</v>
+        <v>1.035760132520579</v>
       </c>
       <c r="M22">
-        <v>1.04121944305374</v>
+        <v>1.040793065485591</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041194814481092</v>
+        <v>1.040857365469738</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.041025987285763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.040020163335255</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022709396146987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.009856723889329</v>
+        <v>1.008659008547433</v>
       </c>
       <c r="D23">
-        <v>1.028589901232668</v>
+        <v>1.026972156226169</v>
       </c>
       <c r="E23">
-        <v>1.02259882890128</v>
+        <v>1.02206991212346</v>
       </c>
       <c r="F23">
-        <v>1.027645800293357</v>
+        <v>1.02711861725329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.053545254157631</v>
+        <v>1.052632581582784</v>
       </c>
       <c r="J23">
-        <v>1.039521846003203</v>
+        <v>1.03837404680886</v>
       </c>
       <c r="K23">
-        <v>1.043315287314914</v>
+        <v>1.041726686277389</v>
       </c>
       <c r="L23">
-        <v>1.037432746085705</v>
+        <v>1.036913490461541</v>
       </c>
       <c r="M23">
-        <v>1.042388180033148</v>
+        <v>1.041870503869255</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042119789956919</v>
+        <v>1.04171008478455</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041756286201269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.040647562886599</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022930431265303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017596066962074</v>
+        <v>1.015912213889788</v>
       </c>
       <c r="D24">
-        <v>1.033909835799781</v>
+        <v>1.031730576735275</v>
       </c>
       <c r="E24">
-        <v>1.028815990137862</v>
+        <v>1.027825504528377</v>
       </c>
       <c r="F24">
-        <v>1.033450191767627</v>
+        <v>1.032566757895619</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056285309738778</v>
+        <v>1.05503888720196</v>
       </c>
       <c r="J24">
-        <v>1.044433200110501</v>
+        <v>1.042811201951209</v>
       </c>
       <c r="K24">
-        <v>1.047366523134032</v>
+        <v>1.045222475611538</v>
       </c>
       <c r="L24">
-        <v>1.042355281289884</v>
+        <v>1.04138098000552</v>
       </c>
       <c r="M24">
-        <v>1.046914289975233</v>
+        <v>1.046045123552996</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045701885672945</v>
+        <v>1.045014003320975</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.044613221426254</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043111005807984</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023789504825921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.026208383117026</v>
+        <v>1.02400167832084</v>
       </c>
       <c r="D25">
-        <v>1.039848485855215</v>
+        <v>1.037056955619873</v>
       </c>
       <c r="E25">
-        <v>1.035763583295773</v>
+        <v>1.034276613983995</v>
       </c>
       <c r="F25">
-        <v>1.039955547499732</v>
+        <v>1.038689377006699</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.059289729123566</v>
+        <v>1.0576788782959</v>
       </c>
       <c r="J25">
-        <v>1.049884814618356</v>
+        <v>1.047747435982068</v>
       </c>
       <c r="K25">
-        <v>1.051858168333716</v>
+        <v>1.049106010717007</v>
       </c>
       <c r="L25">
-        <v>1.047830971504508</v>
+        <v>1.046365151159534</v>
       </c>
       <c r="M25">
-        <v>1.051963725263879</v>
+        <v>1.050715375452671</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.049698135761441</v>
+        <v>1.048710162328997</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047786136644097</v>
+        <v>1.045853649346958</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024732267069786</v>
       </c>
     </row>
   </sheetData>
